--- a/all_models_fold_predictions.xlsx
+++ b/all_models_fold_predictions.xlsx
@@ -8886,7 +8886,7 @@
         <v>0</v>
       </c>
       <c r="K228" t="n">
-        <v>0.04896666666666666</v>
+        <v>0.04896666666666667</v>
       </c>
     </row>
     <row r="229">
@@ -9367,7 +9367,7 @@
         <v>0</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2501699134199137</v>
+        <v>0.2501699134199136</v>
       </c>
     </row>
     <row r="242">
@@ -11291,7 +11291,7 @@
         <v>1</v>
       </c>
       <c r="K293" t="n">
-        <v>0.5535571428571431</v>
+        <v>0.5535571428571432</v>
       </c>
     </row>
     <row r="294">

--- a/all_models_fold_predictions.xlsx
+++ b/all_models_fold_predictions.xlsx
@@ -506,25 +506,25 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1566201066292365</v>
+        <v>0.264548250051</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1516743990143291</v>
+        <v>0.2671037641395524</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0498427673754788</v>
+        <v>0.1022504485593046</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1241928571428571</v>
+        <v>0.1722047619047618</v>
       </c>
     </row>
     <row r="3">
@@ -543,25 +543,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1593983271877925</v>
+        <v>0.3144132681045602</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1540340061071332</v>
+        <v>0.3467381740057359</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03915701990840048</v>
+        <v>0.07550233171052255</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0012</v>
+        <v>0.03806666666666667</v>
       </c>
     </row>
     <row r="4">
@@ -580,25 +580,25 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1494042197698847</v>
+        <v>0.3372733018934141</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1455001257246378</v>
+        <v>0.3833625069335443</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0498427673754788</v>
+        <v>0.07550233171052255</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.004</v>
+        <v>0.1092</v>
       </c>
     </row>
     <row r="5">
@@ -617,25 +617,25 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1520775214294368</v>
+        <v>0.321940666146232</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1477953756644304</v>
+        <v>0.3588074168143856</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0498427673754788</v>
+        <v>0.07550233171052255</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.0412</v>
       </c>
     </row>
     <row r="6">
@@ -654,19 +654,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1224972942287827</v>
+        <v>0.1971579701900231</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1218341919378271</v>
+        <v>0.1637840326605293</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04720260164935739</v>
+        <v>0.02368203305031737</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -691,25 +691,25 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07358891070186421</v>
+        <v>0.2141557559610946</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07554225658871576</v>
+        <v>0.1890117984336267</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02996084526911881</v>
+        <v>0.02368203305031737</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="8">
@@ -728,25 +728,25 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.08803086746841676</v>
+        <v>0.07484599114456614</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08972804066866724</v>
+        <v>0.02175323178905513</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2379122104261758</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.302704761904762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -765,25 +765,25 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.08859130312319299</v>
+        <v>0.1761069051089676</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09026902366851564</v>
+        <v>0.1337155311664199</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2379122104261758</v>
+        <v>0.02368203305031737</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.302704761904762</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="10">
@@ -802,25 +802,25 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.08419677513912192</v>
+        <v>0.2447966958920854</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08600847888621416</v>
+        <v>0.2360469173870045</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02996084526911881</v>
+        <v>0.3957406382420308</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01625238095238095</v>
+        <v>0.4567785714285715</v>
       </c>
     </row>
     <row r="11">
@@ -839,25 +839,25 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.08419677513912192</v>
+        <v>0.251268243103008</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.08600847888621416</v>
+        <v>0.2461727850556784</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02996084526911881</v>
+        <v>0.1022504485593046</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01625238095238095</v>
+        <v>0.1798904761904762</v>
       </c>
     </row>
     <row r="12">
@@ -876,25 +876,25 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.115920829151824</v>
+        <v>0.1917232011800375</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1158776778646158</v>
+        <v>0.1558843869586506</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4299072835744202</v>
+        <v>0.02368203305031737</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4756476190476189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -913,25 +913,25 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1103347500362728</v>
+        <v>0.1615084268760211</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1107591751028814</v>
+        <v>0.1138165521324948</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1560391421715532</v>
+        <v>0.02368203305031737</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.07333333333333335</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="14">
@@ -950,25 +950,25 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.101760200591386</v>
+        <v>0.1435830070654736</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1027907223136484</v>
+        <v>0.09070075870803318</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3151980361396123</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4210333333333335</v>
+        <v>0.098</v>
       </c>
     </row>
     <row r="15">
@@ -987,25 +987,25 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1083015033729863</v>
+        <v>0.1711287306723762</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1088821317966193</v>
+        <v>0.1268327400524</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.04923742112065076</v>
+        <v>0.02368203305031737</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.006</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="16">
@@ -1024,25 +1024,25 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1180781787233436</v>
+        <v>0.1568643513026983</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1178397642173075</v>
+        <v>0.1076779697977031</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0.04720260164935739</v>
+        <v>0.8442799867776555</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>0.638</v>
       </c>
     </row>
     <row r="17">
@@ -1061,25 +1061,25 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1089755682605403</v>
+        <v>0.1568643513026983</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1095052548981966</v>
+        <v>0.1076779697977031</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7032284669800104</v>
+        <v>0.8442799867776555</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>0.656</v>
+        <v>0.638</v>
       </c>
     </row>
     <row r="18">
@@ -1098,25 +1098,25 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.110334750036273</v>
+        <v>0.1662628807970523</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1107591751028815</v>
+        <v>0.1202005404746508</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1560391421715532</v>
+        <v>0.02368203305031737</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.07333333333333335</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="19">
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.09924322766870952</v>
+        <v>0.1568643513026983</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1004248059552579</v>
+        <v>0.1076779697977031</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0.08440747249381828</v>
+        <v>0.8442799867776555</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>0.005</v>
+        <v>0.638</v>
       </c>
     </row>
     <row r="20">
@@ -1172,25 +1172,25 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1188049860293707</v>
+        <v>0.1761069051089676</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.118498987343449</v>
+        <v>0.1337155311664199</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.04720260164935739</v>
+        <v>0.02368203305031737</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="21">
@@ -1209,25 +1209,25 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1270579694235623</v>
+        <v>0.2083740444747048</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1259227954114769</v>
+        <v>0.1803486521846859</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.04114581167305408</v>
+        <v>0.02368203305031737</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="22">
@@ -1246,19 +1246,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1459002162901303</v>
+        <v>0.1917232011800375</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1424772683627146</v>
+        <v>0.1558843869586506</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.05135358820742193</v>
+        <v>0.02368203305031737</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1283,25 +1283,25 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.152977304215605</v>
+        <v>0.3069821887231508</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1485658176308828</v>
+        <v>0.334822503357563</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0498427673754788</v>
+        <v>0.07550233171052255</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>0.03656666666666667</v>
       </c>
     </row>
     <row r="24">
@@ -1320,25 +1320,25 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1270579694235623</v>
+        <v>0.4270792768013406</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1259227954114769</v>
+        <v>0.5242274774142079</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0.04114581167305408</v>
+        <v>0.9303786161434205</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.8299714285714287</v>
       </c>
     </row>
     <row r="25">
@@ -1354,28 +1354,28 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>0.09800562760486228</v>
+        <v>0.6935135618951592</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>0.09925685895997699</v>
+        <v>0.864455338475983</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.08440747249381828</v>
+        <v>0.05997453986785829</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1041571428571429</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="26">
@@ -1391,28 +1391,28 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>0.08582103546750057</v>
+        <v>0.6860890472794703</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0.08758820008830104</v>
+        <v>0.8572541704435257</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.02996084526911881</v>
+        <v>0.05997453986785829</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1203404761904762</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="27">
@@ -1428,28 +1428,28 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>0.105641764204773</v>
+        <v>0.6632475962111111</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1064151358162163</v>
+        <v>0.8341221571931201</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.04923742112065076</v>
+        <v>0.05997453986785829</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="28">
@@ -1465,28 +1465,28 @@
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1011257008552706</v>
+        <v>0.5819560191898915</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1021954801952183</v>
+        <v>0.7407466405544437</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.08440747249381828</v>
+        <v>0.1743956812408388</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.1603333333333333</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="29">
@@ -1502,28 +1502,28 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1069643571778211</v>
+        <v>0.5478558993022478</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1076435417897899</v>
+        <v>0.696959332366186</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.04923742112065076</v>
+        <v>0.1743956812408388</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0.002</v>
+        <v>0.3458333333333333</v>
       </c>
     </row>
     <row r="30">
@@ -1539,28 +1539,28 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>0.08260047818307119</v>
+        <v>0.6632475962111111</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>0.08445017366856722</v>
+        <v>0.8341221571931201</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.02996084526911881</v>
+        <v>0.05997453986785829</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0065</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="31">
@@ -1579,25 +1579,25 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.09144204920471348</v>
+        <v>0.4441393520115453</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>0.09301031482929117</v>
+        <v>0.5500365061237136</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>0.04308444971054579</v>
+        <v>0.9303786161434205</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>0.8299714285714287</v>
       </c>
     </row>
     <row r="32">
@@ -1616,25 +1616,25 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.08972184585693856</v>
+        <v>0.4355902519587564</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>0.09135825072893683</v>
+        <v>0.5371515425930256</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>0.04308444971054579</v>
+        <v>0.9303786161434205</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>0.03630238095238095</v>
+        <v>0.8299714285714287</v>
       </c>
     </row>
     <row r="33">
@@ -1653,25 +1653,25 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.09202201032246847</v>
+        <v>0.4018229162215621</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0935658811289114</v>
+        <v>0.4853566314154943</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>0.04308444971054579</v>
+        <v>0.9303786161434205</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.9456333333333334</v>
       </c>
     </row>
     <row r="34">
@@ -1690,25 +1690,25 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.07550978992936087</v>
+        <v>0.3144132681045602</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.07745716765941794</v>
+        <v>0.3467381740057359</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.02996084526911881</v>
+        <v>0.07550233171052255</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>0.03806666666666667</v>
       </c>
     </row>
     <row r="35">
@@ -1727,25 +1727,25 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.06898201992915994</v>
+        <v>0.06578439855735689</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.07091294436594871</v>
+        <v>0.01582557562104364</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.6950412061318787</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0.602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1764,25 +1764,25 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.06809326100546086</v>
+        <v>0.08778127539894674</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.07001379774725165</v>
+        <v>0.03170201599461583</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0212196396780257</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0.246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1801,19 +1801,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.06298012728911893</v>
+        <v>0.03286251147977778</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.06480200774599608</v>
+        <v>0.002319037890664139</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0212196396780257</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -1838,19 +1838,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.07747661626370454</v>
+        <v>0.01145640372774228</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.07940872001293597</v>
+        <v>6.190702981106932e-05</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.02996084526911881</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -1875,25 +1875,25 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.08747363690371571</v>
+        <v>0.008124800833535176</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.08918947164775576</v>
+        <v>1.56783130029086e-05</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.2379122104261758</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0.302704761904762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1912,25 +1912,25 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.08636873492467421</v>
+        <v>0.008409261028934809</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.08811955622627443</v>
+        <v>1.806808285625631e-05</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.2379122104261758</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.302704761904762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1949,19 +1949,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.07898241705750872</v>
+        <v>0.005561184334460349</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.08089663970084443</v>
+        <v>3.080152344485046e-06</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.02996084526911881</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -1986,19 +1986,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.05938270552890521</v>
+        <v>0.007079319814604505</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.06109480038908246</v>
+        <v>8.799576452814758e-06</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0212196396780257</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -2023,19 +2023,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.05275848569555952</v>
+        <v>0.001172045185222254</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.05417942980985163</v>
+        <v>1.095208178756851e-09</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0212196396780257</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -2060,19 +2060,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.04591292393461797</v>
+        <v>0.001093551209371779</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.04691090878874783</v>
+        <v>7.332560527390631e-10</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0212196396780257</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -2097,19 +2097,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.05488512659771736</v>
+        <v>0.0005858758120529081</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05641220138367785</v>
+        <v>1.645925530410855e-11</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0212196396780257</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.07599715475057239</v>
+        <v>0.0004595922410062362</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.07794160692347545</v>
+        <v>3.434826604944098e-12</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.02996084526911881</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -2171,25 +2171,25 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.08155162928948838</v>
+        <v>0.0005659063498911935</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0.08342313383457306</v>
+        <v>1.319908160836732e-11</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0.02996084526911881</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2208,19 +2208,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.06135683356423179</v>
+        <v>0.0009195310149639398</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.06313334668466576</v>
+        <v>2.641294123766679e-10</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0212196396780257</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
@@ -2245,25 +2245,25 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.08691959739749537</v>
+        <v>0.001300461659145052</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0.08865331178461122</v>
+        <v>1.983820335200271e-09</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0.2379122104261758</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>0.302704761904762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2282,25 +2282,25 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0.06634750941546443</v>
+        <v>0.0007213810921718272</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>0.06824184945510003</v>
+        <v>6.055864714053824e-11</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0212196396780257</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2319,25 +2319,25 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0.07171310588670242</v>
+        <v>0.0007213810921718272</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0.07366363246225482</v>
+        <v>6.055864714053824e-11</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.02996084526911881</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>0.012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2356,25 +2356,25 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0.06464341015447991</v>
+        <v>0.0005099878483347558</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06650471330490829</v>
+        <v>6.764685441869842e-12</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0.0212196396780257</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>0.038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2393,19 +2393,19 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>0.06216353313840147</v>
+        <v>0.0001514526313626903</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0.06396344595339153</v>
+        <v>1.393047526593578e-15</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0.0212196396780257</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -2430,19 +2430,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0563474793398234</v>
+        <v>0.0004595922410062362</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05794057397220382</v>
+        <v>3.434826604944098e-12</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0.0212196396780257</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -2467,19 +2467,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0.03421464788456863</v>
+        <v>0.0006065495204254673</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03421569590293477</v>
+        <v>2.050346829108284e-11</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0.0212196396780257</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -2504,19 +2504,19 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0.04470854292671786</v>
+        <v>0.0001930840915049306</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04561940446658497</v>
+        <v>8.422151263766228e-15</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0.0212196396780257</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -2541,19 +2541,19 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>0.05746820536669079</v>
+        <v>0.0002731545890501775</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0.05910806741541101</v>
+        <v>1.007911200345583e-13</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0.0212196396780257</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -2578,19 +2578,19 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0.04746185517977682</v>
+        <v>0.0002142625802565885</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>0.04856634562115562</v>
+        <v>1.792918040906454e-14</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0.0212196396780257</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -2615,25 +2615,25 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0.06721512609511336</v>
+        <v>0.0001680655280300025</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0.06912344842207106</v>
+        <v>3.031000350812623e-15</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0.0212196396780257</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2652,19 +2652,19 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0.05597849247183945</v>
+        <v>0.0002638413545042999</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0575554628818281</v>
+        <v>7.90045738807066e-14</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0.0212196396780257</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -2689,25 +2689,25 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0.06634750941546443</v>
+        <v>0.0001412999066991998</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>0.06824184945510003</v>
+        <v>8.253286067234274e-16</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0.0212196396780257</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2726,19 +2726,19 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>0.09202201032246847</v>
+        <v>0.0001229903710450415</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0935658811289114</v>
+        <v>2.8610498685279e-16</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0.04308444971054579</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>0.07797560491008874</v>
+        <v>0.000324888561960974</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>0.07990237422501806</v>
+        <v>3.35359565485211e-13</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0.02996084526911881</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -2800,25 +2800,25 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0.06422379536692475</v>
+        <v>0.0001865003597371718</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0.06607582405366443</v>
+        <v>6.533427585788682e-15</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0.0212196396780257</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>0.038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2837,25 +2837,25 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0880308674684168</v>
+        <v>5.935201833839273e-05</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0.08972804066866741</v>
+        <v>8.360777270609205e-19</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0.2379122104261758</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>0.302704761904762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2874,25 +2874,25 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0.101760200591386</v>
+        <v>8.110603211380443e-05</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1027907223136484</v>
+        <v>1.078466277629552e-17</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0.3151980361396123</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>0.4210333333333335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2911,19 +2911,19 @@
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>0.07747661626370454</v>
+        <v>8.39695045341034e-05</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>0.07940872001293597</v>
+        <v>1.425405192350284e-17</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0.02996084526911881</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -2948,25 +2948,25 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>0.1069643571778211</v>
+        <v>8.110603211380443e-05</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0.1076435417897899</v>
+        <v>1.078466277629552e-17</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0.04923742112065076</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2985,25 +2985,25 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1110198942036082</v>
+        <v>0.0001739985968973363</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0.1113899792011261</v>
+        <v>3.919427272559223e-15</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0.487708228130012</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>0.4384928571428574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -3022,25 +3022,25 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1130977028271881</v>
+        <v>0.0001034025441432861</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>0.1132978085507088</v>
+        <v>7.434054465350737e-17</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0.487708228130012</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>0.8029666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -3059,25 +3059,25 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0.1341703817100416</v>
+        <v>0.0001364816577312091</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>0.1322334629891622</v>
+        <v>6.342778270465226e-16</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0.04162255447708223</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3096,25 +3096,25 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>0.1173552256164272</v>
+        <v>0.0001462882307298912</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>0.1171831402626099</v>
+        <v>1.072808855545178e-15</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0.04720260164935739</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>0.0004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -3133,25 +3133,25 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0891549579053246</v>
+        <v>0.0001865003597371718</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>0.09081242543637835</v>
+        <v>6.533427585788682e-15</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0.04308444971054579</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J73" t="n">
         <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>0.1086761904761905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -3170,25 +3170,25 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0.1096533125966596</v>
+        <v>0.0002377634857233752</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>0.1101309348273365</v>
+        <v>3.781258052907142e-14</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0.7032284669800104</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>0.677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -3207,19 +3207,19 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0.1202702158071218</v>
+        <v>0.0003138120058245163</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1198252428371527</v>
+        <v>2.642374503822492e-13</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0.04720260164935739</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
@@ -3244,19 +3244,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0.1217510195976193</v>
+        <v>0.0005858758120529081</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>0.1211619297336868</v>
+        <v>1.645925530410855e-11</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0.04720260164935739</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
@@ -3281,19 +3281,19 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1270579694235623</v>
+        <v>0.0008579338418199233</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>0.1259227954114769</v>
+        <v>1.743028991689542e-10</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0.04114581167305408</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
@@ -3318,25 +3318,25 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>0.1152093592584023</v>
+        <v>0.001213377848511017</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>0.115228833305903</v>
+        <v>1.336429056660938e-09</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0.4299072835744202</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>0.4928333333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3355,25 +3355,25 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0.1255218446599965</v>
+        <v>0.001970797945034137</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>0.1245494284518861</v>
+        <v>1.946752596343331e-08</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0.04114581167305408</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>0.003666666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -3392,19 +3392,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0.1188049860293707</v>
+        <v>0.002599715192356895</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>0.118498987343449</v>
+        <v>8.21947967938318e-08</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0.04720260164935739</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
@@ -3429,25 +3429,25 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1441739131088811</v>
+        <v>0.0040755713148368</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>0.1409818815425619</v>
+        <v>7.424670882315983e-07</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0.05135358820742193</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J81" t="n">
         <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>0.03662460317460317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3466,25 +3466,25 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1424646286513648</v>
+        <v>0.009323229784967609</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>0.1394971762750668</v>
+        <v>2.748667909084443e-05</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0.07146455508423039</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J82" t="n">
         <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>0.03173333333333332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3503,19 +3503,19 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0.152977304215605</v>
+        <v>0.02345355316468901</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>0.1485658176308828</v>
+        <v>0.0007995084285146283</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0.0498427673754788</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
@@ -3540,19 +3540,19 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>0.1520775214294368</v>
+        <v>0.02971015927299543</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>0.1477953756644304</v>
+        <v>0.001702287250815988</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0.0498427673754788</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
@@ -3577,19 +3577,19 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>0.1603332340140897</v>
+        <v>0.03884665338574346</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1548259102393626</v>
+        <v>0.003807451511858355</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0.03915701990840048</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
@@ -3614,25 +3614,25 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>0.1416163412442043</v>
+        <v>0.06164576588632191</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>0.1387588258637769</v>
+        <v>0.01342210787863536</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0.07146455508423039</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J86" t="n">
         <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>0.002452380952380952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3651,19 +3651,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0.1293922518142379</v>
+        <v>0.102703930528808</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1280025869865066</v>
+        <v>0.04514401865994308</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0.04114581167305408</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J87" t="n">
         <v>0</v>
@@ -3688,25 +3688,25 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>0.1341703817100415</v>
+        <v>0.1435830070654736</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>0.1322334629891622</v>
+        <v>0.09070075870803318</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0.04162255447708223</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J88" t="n">
         <v>0</v>
       </c>
       <c r="K88" t="n">
-        <v>0.008</v>
+        <v>0.098</v>
       </c>
     </row>
     <row r="89">
@@ -3725,25 +3725,25 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>0.1557028362403564</v>
+        <v>0.1523295533783587</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1508932303214466</v>
+        <v>0.1017815881389547</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>0.0498427673754788</v>
+        <v>0.8442799867776555</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" t="n">
-        <v>0.004166666666666666</v>
+        <v>0.638</v>
       </c>
     </row>
     <row r="90">
@@ -3762,25 +3762,25 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>0.1247597636917016</v>
+        <v>0.1435830070654736</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1238666859414396</v>
+        <v>0.09070075870803318</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0.3411202453471346</v>
+        <v>0.001429070156593324</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>0.4838037518037518</v>
+        <v>0.098</v>
       </c>
     </row>
     <row r="91">
@@ -3799,25 +3799,25 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>0.1325613261106489</v>
+        <v>0.2027081617781379</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1308125889478167</v>
+        <v>0.1719389980677411</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0.6672337598713654</v>
+        <v>0.02368203305031737</v>
       </c>
       <c r="J91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>0.898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3836,25 +3836,25 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>0.1407722756849467</v>
+        <v>0.2141557559610946</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1380231417003721</v>
+        <v>0.1890117984336267</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0.07146455508423039</v>
+        <v>0.02368203305031737</v>
       </c>
       <c r="J92" t="n">
         <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>0.03904999999999999</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="93">
@@ -3873,25 +3873,25 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>0.1416163412442042</v>
+        <v>0.2713543385937205</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1387588258637769</v>
+        <v>0.2778962333009302</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0.07146455508423039</v>
+        <v>0.4970711223254311</v>
       </c>
       <c r="J93" t="n">
         <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>0.002452380952380952</v>
+        <v>0.4635809523809526</v>
       </c>
     </row>
     <row r="94">
@@ -3910,25 +3910,25 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>0.1357959107973764</v>
+        <v>0.3372733018934141</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>0.133664940592381</v>
+        <v>0.3833625069335443</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0.04162255447708223</v>
+        <v>0.07550233171052255</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>0</v>
+        <v>0.1092</v>
       </c>
     </row>
     <row r="95">
@@ -3947,25 +3947,25 @@
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>0.1349810811419418</v>
+        <v>0.3372733018934141</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1329478753816688</v>
+        <v>0.3833625069335443</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0.04162255447708223</v>
+        <v>0.07550233171052255</v>
       </c>
       <c r="J95" t="n">
         <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>0.1092</v>
       </c>
     </row>
     <row r="96">
@@ -3984,25 +3984,25 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>0.139932420830981</v>
+        <v>0.4186112591450818</v>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>0.1372901222921281</v>
+        <v>0.5112778704621109</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>0.1754978054511386</v>
+        <v>0.9303786161434205</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K96" t="n">
-        <v>0.2675327561327563</v>
+        <v>0.836304761904762</v>
       </c>
     </row>
     <row r="97">
@@ -4021,25 +4021,25 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>0.1416163412442043</v>
+        <v>0.3069821887231508</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0.1387588258637769</v>
+        <v>0.334822503357563</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0.07146455508423039</v>
+        <v>0.07550233171052255</v>
       </c>
       <c r="J97" t="n">
         <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>0.002452380952380952</v>
+        <v>0.03656666666666667</v>
       </c>
     </row>
     <row r="98">
@@ -4058,25 +4058,25 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>0.1584678429863015</v>
+        <v>0.1917232011800375</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>0.1532447864491345</v>
+        <v>0.1558843869586506</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0.03915701990840048</v>
+        <v>0.02368203305031737</v>
       </c>
       <c r="J98" t="n">
         <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>0.0012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -4095,25 +4095,25 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>0.152977304215605</v>
+        <v>0.2713543385937205</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>0.1485658176308828</v>
+        <v>0.2778962333009302</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0.0498427673754788</v>
+        <v>0.4970711223254311</v>
       </c>
       <c r="J99" t="n">
         <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>0</v>
+        <v>0.4635809523809526</v>
       </c>
     </row>
     <row r="100">
@@ -4132,25 +4132,25 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>0.1584678429863016</v>
+        <v>0.3372733018934141</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>0.1532447864491345</v>
+        <v>0.3833625069335443</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0.03915701990840048</v>
+        <v>0.07550233171052255</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>0.0012</v>
+        <v>0.1092</v>
       </c>
     </row>
     <row r="101">
@@ -4169,25 +4169,25 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>0.1593983271877925</v>
+        <v>0.3069821887231508</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>0.1540340061071332</v>
+        <v>0.334822503357563</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0.03915701990840048</v>
+        <v>0.07550233171052255</v>
       </c>
       <c r="J101" t="n">
         <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>0.0012</v>
+        <v>0.03656666666666667</v>
       </c>
     </row>
     <row r="102">
@@ -4206,25 +4206,25 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>0.1502909891629383</v>
+        <v>0.3529560532324231</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>0.1462625305700296</v>
+        <v>0.4083954204179262</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>0.0498427673754788</v>
+        <v>0.9303786161434205</v>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>0.664</v>
       </c>
     </row>
     <row r="103">
@@ -4243,25 +4243,25 @@
         <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>0.1416163412442043</v>
+        <v>0.3529560532324231</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>0.1387588258637769</v>
+        <v>0.4083954204179262</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
-        <v>0.07146455508423039</v>
+        <v>0.9303786161434205</v>
       </c>
       <c r="J103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K103" t="n">
-        <v>0.002452380952380952</v>
+        <v>0.664</v>
       </c>
     </row>
     <row r="104">
@@ -4280,25 +4280,25 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>0.1566201066292365</v>
+        <v>0.3935117157805852</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>0.1516743990143291</v>
+        <v>0.4724123502791239</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>0.0498427673754788</v>
+        <v>0.9303786161434205</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K104" t="n">
-        <v>0.1241928571428571</v>
+        <v>0.9369666666666668</v>
       </c>
     </row>
     <row r="105">
@@ -4317,25 +4317,25 @@
         <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>0.1424646286513647</v>
+        <v>0.3935117157805852</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>0.1394971762750666</v>
+        <v>0.4724123502791239</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
-        <v>0.07146455508423039</v>
+        <v>0.9303786161434205</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03173333333333332</v>
+        <v>0.9369666666666668</v>
       </c>
     </row>
     <row r="106">
@@ -4354,25 +4354,25 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>0.1899253526988972</v>
+        <v>0.4733692223643269</v>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>0.1897271231358431</v>
+        <v>0.5599173262394246</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0.2621423275194531</v>
+        <v>0.1884216752665659</v>
       </c>
       <c r="J106" t="n">
         <v>0</v>
       </c>
       <c r="K106" t="n">
-        <v>0.3506357142857144</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="107">
@@ -4391,25 +4391,25 @@
         <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>0.1930489654853828</v>
+        <v>0.4831919325445735</v>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>0.1928045635156804</v>
+        <v>0.5740813893230169</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0.1749933379742516</v>
+        <v>0.1884216752665659</v>
       </c>
       <c r="J107" t="n">
         <v>0</v>
       </c>
       <c r="K107" t="n">
-        <v>0.1885987734487737</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="108">
@@ -4428,25 +4428,25 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>0.1817853108395452</v>
+        <v>0.434358660237784</v>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G108" t="n">
-        <v>0.18166945300665</v>
+        <v>0.5026724686237944</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>0.1504855592838725</v>
+        <v>0.9188178524459398</v>
       </c>
       <c r="J108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K108" t="n">
-        <v>0.005</v>
+        <v>0.952</v>
       </c>
     </row>
     <row r="109">
@@ -4465,25 +4465,25 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>0.1788035657344016</v>
+        <v>0.3237729527299535</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>0.1787038616215224</v>
+        <v>0.3352422723774834</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>0.1079421430596899</v>
+        <v>0.6357678242798607</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K109" t="n">
-        <v>0.02744523809523809</v>
+        <v>0.6748571428571428</v>
       </c>
     </row>
     <row r="110">
@@ -4502,25 +4502,25 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>0.1778181903523328</v>
+        <v>0.3591579412918108</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>0.1777221430535111</v>
+        <v>0.3891932135061667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0.1604332094824807</v>
+        <v>0.1134645470339505</v>
       </c>
       <c r="J110" t="n">
         <v>0</v>
       </c>
       <c r="K110" t="n">
-        <v>0.2049512265512268</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="111">
@@ -4539,25 +4539,25 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>0.1778181903523328</v>
+        <v>0.3867672189112859</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>0.1777221430535111</v>
+        <v>0.4311775869957812</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0.1604332094824807</v>
+        <v>0.2454542255925307</v>
       </c>
       <c r="J111" t="n">
         <v>0</v>
       </c>
       <c r="K111" t="n">
-        <v>0.2049512265512268</v>
+        <v>0.2519026695526697</v>
       </c>
     </row>
     <row r="112">
@@ -4576,25 +4576,25 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>0.187864527565942</v>
+        <v>0.2514706813891963</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>0.1876923785132789</v>
+        <v>0.2267419176347376</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>0.05913467913763747</v>
+        <v>0.6909748508900274</v>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K112" t="n">
-        <v>0.003333333333333333</v>
+        <v>0.868</v>
       </c>
     </row>
     <row r="113">
@@ -4613,25 +4613,25 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>0.1644676275363751</v>
+        <v>0.2096589572813255</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>0.1643368401718558</v>
+        <v>0.1670945003789668</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0.04648990603729707</v>
+        <v>0.2154252676688427</v>
       </c>
       <c r="J113" t="n">
         <v>0</v>
       </c>
       <c r="K113" t="n">
-        <v>0</v>
+        <v>0.314963492063492</v>
       </c>
     </row>
     <row r="114">
@@ -4650,19 +4650,19 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>0.150209160723492</v>
+        <v>0.1115560982282394</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>0.1498616892720682</v>
+        <v>0.0494715870393923</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0.06918315496288763</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J114" t="n">
         <v>0</v>
@@ -4687,25 +4687,25 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>0.1617137956793658</v>
+        <v>0.06504373318443829</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>0.1615558806871219</v>
+        <v>0.01425391182448347</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0.07787990162643695</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J115" t="n">
         <v>0</v>
       </c>
       <c r="K115" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -4724,19 +4724,19 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>0.1510696529377909</v>
+        <v>0.05405042363404047</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>0.1507406741995</v>
+        <v>0.008886775269545497</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0.06918315496288763</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J116" t="n">
         <v>0</v>
@@ -4761,19 +4761,19 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>0.09881474937485327</v>
+        <v>0.01169386900073155</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>0.09606013277315328</v>
+        <v>6.922837347442464e-05</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0.02067722561147137</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J117" t="n">
         <v>0</v>
@@ -4798,25 +4798,25 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>0.1155151276524599</v>
+        <v>0.01169386900073155</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>0.1138228136981777</v>
+        <v>6.922837347442464e-05</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0.07874608456234174</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J118" t="n">
         <v>0</v>
       </c>
       <c r="K118" t="n">
-        <v>0.02163333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -4835,25 +4835,25 @@
         <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>0.09018774096530767</v>
+        <v>0.001410058103792005</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08678759033604677</v>
+        <v>4.313457390704607e-09</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0.02067722561147137</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J119" t="n">
         <v>0</v>
       </c>
       <c r="K119" t="n">
-        <v>0.05576666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -4872,19 +4872,19 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>0.06867252504552986</v>
+        <v>0.0002923199593787349</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>0.06344771623204014</v>
+        <v>3.092631065258845e-13</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0.0131942687623732</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J120" t="n">
         <v>0</v>
@@ -4909,19 +4909,19 @@
         <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>0.06655280507655313</v>
+        <v>0.000548646803924059</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>0.06113879321992669</v>
+        <v>1.794875077819034e-11</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0.0131942687623732</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J121" t="n">
         <v>0</v>
@@ -4946,19 +4946,19 @@
         <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>0.07779043312053376</v>
+        <v>0.002259574705092789</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>0.0733673383334551</v>
+        <v>5.088183239192233e-08</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0.0131942687623732</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J122" t="n">
         <v>0</v>
@@ -4983,19 +4983,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>0.08073503954507014</v>
+        <v>0.001785062977512549</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0765634889516635</v>
+        <v>1.515495544438283e-08</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0.0131942687623732</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J123" t="n">
         <v>0</v>
@@ -5020,19 +5020,19 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>0.07779043312053373</v>
+        <v>0.002542105300102877</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0733673383334551</v>
+        <v>9.166075184826051e-08</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0.0131942687623732</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J124" t="n">
         <v>0</v>
@@ -5057,19 +5057,19 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>0.07635528802684022</v>
+        <v>0.001856602907266897</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0718080250788139</v>
+        <v>1.860335137918379e-08</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0.0131942687623732</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J125" t="n">
         <v>0</v>
@@ -5094,19 +5094,19 @@
         <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>0.06328730879229899</v>
+        <v>0.001785062977512549</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>0.05758173365568784</v>
+        <v>1.515495544438283e-08</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0.0131942687623732</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J126" t="n">
         <v>0</v>
@@ -5131,19 +5131,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>0.02207623997236606</v>
+        <v>0.0002701934786565562</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>0.01429564160166595</v>
+        <v>1.819320067042699e-13</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0.0131942687623732</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J127" t="n">
         <v>0</v>
@@ -5168,19 +5168,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>0.02013243541758928</v>
+        <v>2.981049194583031e-05</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>0.01248764802513572</v>
+        <v>8.069077574706895e-21</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0.0131942687623732</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J128" t="n">
         <v>0</v>
@@ -5205,19 +5205,19 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>0.01485499036976992</v>
+        <v>0.000450663495547428</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>0.007868284105937699</v>
+        <v>5.224861138043387e-12</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0.0131942687623732</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J129" t="n">
         <v>0</v>
@@ -5242,19 +5242,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>0.0131836055418065</v>
+        <v>0.001650133281956509</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>0.006518880300988569</v>
+        <v>1.001931420930743e-08</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0.0131942687623732</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J130" t="n">
         <v>0</v>
@@ -5279,19 +5279,19 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>0.01576729485995361</v>
+        <v>0.0003701726299844019</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>0.008630870282580583</v>
+        <v>1.473340863080203e-12</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0.0131942687623732</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J131" t="n">
         <v>0</v>
@@ -5316,19 +5316,19 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>0.01695744804369389</v>
+        <v>0.0002051289042373342</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>0.009650361977354782</v>
+        <v>2.728955120861744e-14</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0.0131942687623732</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J132" t="n">
         <v>0</v>
@@ -5353,19 +5353,19 @@
         <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>0.01485499036976989</v>
+        <v>0.0004004832482079308</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>0.007868284105937677</v>
+        <v>2.45397480308303e-12</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0.0131942687623732</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J133" t="n">
         <v>0</v>
@@ -5390,19 +5390,19 @@
         <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>0.02618410429585353</v>
+        <v>7.08723312197946e-05</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>0.01825552284624815</v>
+        <v>1.007883896692261e-17</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0.0131942687623732</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J134" t="n">
         <v>0</v>
@@ -5427,19 +5427,19 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>0.05199664839401158</v>
+        <v>1.205465639416853e-05</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04531213401440475</v>
+        <v>2.405106055189386e-24</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0.0131942687623732</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J135" t="n">
         <v>0</v>
@@ -5464,19 +5464,19 @@
         <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>0.06093688062790827</v>
+        <v>3.100739149919347e-05</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05502236265412931</v>
+        <v>1.130901124493688e-20</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0.0131942687623732</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J136" t="n">
         <v>0</v>
@@ -5501,25 +5501,25 @@
         <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>0.08963741554048731</v>
+        <v>3.354728271154767e-05</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>0.08619407028967946</v>
+        <v>2.212863885970774e-20</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0.02067722561147137</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J137" t="n">
         <v>0</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05576666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -5538,25 +5538,25 @@
         <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>0.08909011937190536</v>
+        <v>3.629521506858666e-05</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>0.08560359158686398</v>
+        <v>4.307809637961467e-20</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0.02067722561147137</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J138" t="n">
         <v>0</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1339666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -5575,19 +5575,19 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>0.0812355863512243</v>
+        <v>5.821021056248551e-05</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>0.07710632488907183</v>
+        <v>2.105208946472189e-18</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0.0131942687623732</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J139" t="n">
         <v>0</v>
@@ -5612,19 +5612,19 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>0.09241958866526334</v>
+        <v>2.755350831170171e-05</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>0.0891922273877534</v>
+        <v>4.092142526077554e-21</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>0.02067722561147137</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J140" t="n">
         <v>0</v>
@@ -5649,19 +5649,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>0.08073503954507014</v>
+        <v>2.010977729330936e-05</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>0.0765634889516635</v>
+        <v>2.571361871798138e-22</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>0.0131942687623732</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J141" t="n">
         <v>0</v>
@@ -5686,25 +5686,25 @@
         <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>0.1225662183129022</v>
+        <v>1.356575620735173e-05</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1212426815124136</v>
+        <v>7.206766569523883e-24</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>0.4580457780235208</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K142" t="n">
-        <v>0.5283047619047621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -5723,25 +5723,25 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>0.1049674205181028</v>
+        <v>8.797988177990885e-06</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1026341983267958</v>
+        <v>1.217937126492259e-25</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>0.373674975769232</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J143" t="n">
         <v>0</v>
       </c>
       <c r="K143" t="n">
-        <v>0.4305333333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -5760,25 +5760,25 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>0.1049674205181028</v>
+        <v>9.151237574177935e-06</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1026341983267958</v>
+        <v>1.776304960909104e-25</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>0.373674975769232</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J144" t="n">
         <v>0</v>
       </c>
       <c r="K144" t="n">
-        <v>0.4305333333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -5797,25 +5797,25 @@
         <v>0</v>
       </c>
       <c r="E145" t="n">
-        <v>0.1254888096342981</v>
+        <v>8.131870321515611e-06</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1243038630594352</v>
+        <v>5.703801097509372e-26</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>0.2486855762643979</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J145" t="n">
         <v>0</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1842571428571429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -5834,25 +5834,25 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>0.1277197507440642</v>
+        <v>1.304210300614881e-05</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1266349450693139</v>
+        <v>5.00529601382935e-24</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>0.2486855762643979</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J146" t="n">
         <v>0</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1053174603174604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -5871,25 +5871,25 @@
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>0.08854583979185127</v>
+        <v>2.981049194583031e-05</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>0.08501614696962961</v>
+        <v>8.069077574706895e-21</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>0.3357296581824662</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J147" t="n">
         <v>0</v>
       </c>
       <c r="K147" t="n">
-        <v>0.4263333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -5908,19 +5908,19 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>0.08275424126425399</v>
+        <v>6.054729768565333e-05</v>
       </c>
       <c r="F148" t="n">
         <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>0.07875238262358009</v>
+        <v>2.886893676988024e-18</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>0.0131942687623732</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J148" t="n">
         <v>0</v>
@@ -5945,25 +5945,25 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>0.104337251996763</v>
+        <v>4.084484259471255e-05</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1019624391528915</v>
+        <v>1.158862821430782e-19</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>0.373674975769232</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J149" t="n">
         <v>0</v>
       </c>
       <c r="K149" t="n">
-        <v>0.4305333333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -5982,19 +5982,19 @@
         <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>0.0812355863512243</v>
+        <v>0.0001619816972088678</v>
       </c>
       <c r="F150" t="n">
         <v>0</v>
       </c>
       <c r="G150" t="n">
-        <v>0.07710632488907183</v>
+        <v>5.107043602407499e-15</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>0.0131942687623732</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J150" t="n">
         <v>0</v>
@@ -6019,19 +6019,19 @@
         <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>0.07635528802684025</v>
+        <v>0.0001383852352667578</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>0.07180802507881394</v>
+        <v>1.628763038872688e-15</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>0.0131942687623732</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J151" t="n">
         <v>0</v>
@@ -6056,19 +6056,19 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>0.07264625265026366</v>
+        <v>6.297821082599224e-05</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06777412652947815</v>
+        <v>3.953757743578275e-18</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>0.0131942687623732</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J152" t="n">
         <v>0</v>
@@ -6093,19 +6093,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>0.07876087578250902</v>
+        <v>3.926822782257637e-05</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>0.07442118236564443</v>
+        <v>8.343156979034304e-20</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>0.0131942687623732</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J153" t="n">
         <v>0</v>
@@ -6130,19 +6130,19 @@
         <v>0</v>
       </c>
       <c r="E154" t="n">
-        <v>0.1006260442076919</v>
+        <v>1.158933264189144e-05</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
       </c>
       <c r="G154" t="n">
-        <v>0.09799899002073409</v>
+        <v>1.663984644230347e-24</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>0.02067722561147137</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J154" t="n">
         <v>0</v>
@@ -6167,25 +6167,25 @@
         <v>0</v>
       </c>
       <c r="E155" t="n">
-        <v>0.104337251996763</v>
+        <v>7.226050780695545e-06</v>
       </c>
       <c r="F155" t="n">
         <v>0</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1019624391528914</v>
+        <v>1.810444441669687e-26</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>0.373674975769232</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J155" t="n">
         <v>0</v>
       </c>
       <c r="K155" t="n">
-        <v>0.4305333333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -6204,25 +6204,25 @@
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>0.1075217921248878</v>
+        <v>1.158933264189144e-05</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1053534040536563</v>
+        <v>1.663984644230347e-24</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>0.3111714673389548</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J156" t="n">
         <v>0</v>
       </c>
       <c r="K156" t="n">
-        <v>0.4400444444444442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -6241,25 +6241,25 @@
         <v>0</v>
       </c>
       <c r="E157" t="n">
-        <v>0.1114558059978369</v>
+        <v>1.651679482454559e-05</v>
       </c>
       <c r="F157" t="n">
         <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1095293312429917</v>
+        <v>4.374461094871099e-23</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>0.09669579764210612</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J157" t="n">
         <v>0</v>
       </c>
       <c r="K157" t="n">
-        <v>0.0105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -6278,19 +6278,19 @@
         <v>0</v>
       </c>
       <c r="E158" t="n">
-        <v>0.1175925991399484</v>
+        <v>1.411043430045208e-05</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1160139721956387</v>
+        <v>1.036318232407991e-23</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>0.07874608456234174</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J158" t="n">
         <v>0</v>
@@ -6315,19 +6315,19 @@
         <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>0.09703254072950711</v>
+        <v>2.865979194080669e-05</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>0.09414962894941054</v>
+        <v>5.749974835030917e-21</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>0.02067722561147137</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J159" t="n">
         <v>0</v>
@@ -6352,25 +6352,25 @@
         <v>0</v>
       </c>
       <c r="E160" t="n">
-        <v>0.1127948599116966</v>
+        <v>1.304210300614881e-05</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1109473762689426</v>
+        <v>5.00529601382935e-24</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>0.6113634894431038</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K160" t="n">
-        <v>0.6256333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -6389,25 +6389,25 @@
         <v>0</v>
       </c>
       <c r="E161" t="n">
-        <v>0.1094733008923124</v>
+        <v>4.781020871600642e-05</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1074267428672383</v>
+        <v>4.258637608889064e-19</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>0.09669579764210612</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J161" t="n">
         <v>0</v>
       </c>
       <c r="K161" t="n">
-        <v>0.03052301587301588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -6426,19 +6426,19 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>0.07925023820647305</v>
+        <v>0.0002597662846989766</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07495241952840437</v>
+        <v>1.3927369244375e-13</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>0.0131942687623732</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J162" t="n">
         <v>0</v>
@@ -6463,19 +6463,19 @@
         <v>0</v>
       </c>
       <c r="E163" t="n">
-        <v>0.05979250499816579</v>
+        <v>0.001253185611963775</v>
       </c>
       <c r="F163" t="n">
         <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>0.05377682755324639</v>
+        <v>2.262321530408931e-09</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>0.0131942687623732</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J163" t="n">
         <v>0</v>
@@ -6500,19 +6500,19 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>0.07876087578250902</v>
+        <v>0.000527479325256683</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07442118236564438</v>
+        <v>1.405874882301847e-11</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>0.0131942687623732</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J164" t="n">
         <v>0</v>
@@ -6537,19 +6537,19 @@
         <v>0</v>
       </c>
       <c r="E165" t="n">
-        <v>0.078274278238739</v>
+        <v>0.000416556562516057</v>
       </c>
       <c r="F165" t="n">
         <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>0.0738928246871159</v>
+        <v>3.160998601744359e-12</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>0.0131942687623732</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J165" t="n">
         <v>0</v>
@@ -6574,19 +6574,19 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>0.07264625265026363</v>
+        <v>0.0009149336157201979</v>
       </c>
       <c r="F166" t="n">
         <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>0.06777412652947813</v>
+        <v>3.828129202370948e-10</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>0.0131942687623732</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J166" t="n">
         <v>0</v>
@@ -6611,19 +6611,19 @@
         <v>0</v>
       </c>
       <c r="E167" t="n">
-        <v>0.07310063794399914</v>
+        <v>0.0009149336157201979</v>
       </c>
       <c r="F167" t="n">
         <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>0.06826857697164573</v>
+        <v>3.828129202370948e-10</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>0.0131942687623732</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J167" t="n">
         <v>0</v>
@@ -6648,19 +6648,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>0.07541205920017868</v>
+        <v>0.0006421532104184679</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>0.070782688312696</v>
+        <v>4.708320607387062e-11</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>0.0131942687623732</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J168" t="n">
         <v>0</v>
@@ -6685,25 +6685,25 @@
         <v>0</v>
       </c>
       <c r="E169" t="n">
-        <v>0.08693097396355502</v>
+        <v>0.0003421552889596261</v>
       </c>
       <c r="F169" t="n">
         <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>0.08327194432762197</v>
+        <v>8.800846560634543e-13</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>0.0131942687623732</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J169" t="n">
         <v>0</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07016666666666665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -6722,19 +6722,19 @@
         <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>0.08073503954507014</v>
+        <v>0.0006947187701418995</v>
       </c>
       <c r="F170" t="n">
         <v>0</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0765634889516635</v>
+        <v>7.56784910084768e-11</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>0.0131942687623732</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J170" t="n">
         <v>0</v>
@@ -6759,19 +6759,19 @@
         <v>0</v>
       </c>
       <c r="E171" t="n">
-        <v>0.06055316446290655</v>
+        <v>0.004761806575672789</v>
       </c>
       <c r="F171" t="n">
         <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>0.05460467613405822</v>
+        <v>1.748312764396534e-06</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>0.0131942687623732</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J171" t="n">
         <v>0</v>
@@ -6796,19 +6796,19 @@
         <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>0.07264625265026366</v>
+        <v>0.003345951686928184</v>
       </c>
       <c r="F172" t="n">
         <v>0</v>
       </c>
       <c r="G172" t="n">
-        <v>0.06777412652947815</v>
+        <v>3.463585970242318e-07</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>0.0131942687623732</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J172" t="n">
         <v>0</v>
@@ -6833,19 +6833,19 @@
         <v>0</v>
       </c>
       <c r="E173" t="n">
-        <v>0.06867252504552986</v>
+        <v>0.003217208096515458</v>
       </c>
       <c r="F173" t="n">
         <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>0.06344771623204008</v>
+        <v>2.875307040869702e-07</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>0.0131942687623732</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J173" t="n">
         <v>0</v>
@@ -6870,19 +6870,19 @@
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>0.07219447177623201</v>
+        <v>0.002859861433657253</v>
       </c>
       <c r="F174" t="n">
         <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>0.06728244678275726</v>
+        <v>1.63263364643212e-07</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>0.0131942687623732</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J174" t="n">
         <v>0</v>
@@ -6907,25 +6907,25 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>0.08854583979185127</v>
+        <v>0.002444215791987083</v>
       </c>
       <c r="F175" t="n">
         <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08501614696962961</v>
+        <v>7.542632322737206e-08</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>0.3357296581824662</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J175" t="n">
         <v>0</v>
       </c>
       <c r="K175" t="n">
-        <v>0.4263333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -6944,19 +6944,19 @@
         <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>0.09881474937485331</v>
+        <v>0.001931004394923897</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>0.09606013277315328</v>
+        <v>2.280762543158936e-08</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>0.02067722561147137</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J176" t="n">
         <v>0</v>
@@ -6981,19 +6981,19 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>0.08534280181771779</v>
+        <v>0.002542105300102877</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08155478257703913</v>
+        <v>9.166075184826051e-08</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>0.0131942687623732</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J177" t="n">
         <v>0</v>
@@ -7018,25 +7018,25 @@
         <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>0.08800456413618288</v>
+        <v>0.001410058103792005</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08443172913150965</v>
+        <v>4.313457390704607e-09</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>0.3357296581824662</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J178" t="n">
         <v>0</v>
       </c>
       <c r="K178" t="n">
-        <v>0.4263333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -7055,19 +7055,19 @@
         <v>0</v>
       </c>
       <c r="E179" t="n">
-        <v>0.08586924763918125</v>
+        <v>0.000548646803924059</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08212417777480019</v>
+        <v>1.794875077819034e-11</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>0.0131942687623732</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J179" t="n">
         <v>0</v>
@@ -7092,19 +7092,19 @@
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>0.08586924763918125</v>
+        <v>0.001029507715130967</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08212417777480019</v>
+        <v>7.523996837584614e-10</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>0.0131942687623732</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J180" t="n">
         <v>0</v>
@@ -7129,19 +7129,19 @@
         <v>0</v>
       </c>
       <c r="E181" t="n">
-        <v>0.1006260442076919</v>
+        <v>0.0009516346350428504</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>0.09799899002073409</v>
+        <v>4.801284764104716e-10</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>0.02067722561147137</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J181" t="n">
         <v>0</v>
@@ -7166,19 +7166,19 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>0.08173896054217547</v>
+        <v>0.001856602907266897</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>0.07765208053577496</v>
+        <v>1.860335137918379e-08</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>0.0131942687623732</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J182" t="n">
         <v>0</v>
@@ -7203,19 +7203,19 @@
         <v>0</v>
       </c>
       <c r="E183" t="n">
-        <v>0.08224517466118118</v>
+        <v>0.0004332746964315396</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
       </c>
       <c r="G183" t="n">
-        <v>0.07820076381857496</v>
+        <v>4.066547236640981e-12</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>0.0131942687623732</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J183" t="n">
         <v>0</v>
@@ -7240,19 +7240,19 @@
         <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>0.09527907731006233</v>
+        <v>0.0001182257491548959</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0922673040526113</v>
+        <v>5.089391594755606e-16</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>0.02067722561147137</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J184" t="n">
         <v>0</v>
@@ -7277,25 +7277,25 @@
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>0.1037104283001438</v>
+        <v>4.781020871600642e-05</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>0.10129388537551</v>
+        <v>4.258637608889064e-19</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>0.02067722561147137</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J185" t="n">
         <v>0</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -7314,25 +7314,25 @@
         <v>0</v>
       </c>
       <c r="E186" t="n">
-        <v>0.1030869369313576</v>
+        <v>4.781020871600642e-05</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1006285311305776</v>
+        <v>4.258637608889064e-19</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>0.02067722561147137</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J186" t="n">
         <v>0</v>
       </c>
       <c r="K186" t="n">
-        <v>0.03246666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -7351,25 +7351,25 @@
         <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>0.1056009463426804</v>
+        <v>6.054729768565333e-05</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1033091686983268</v>
+        <v>2.886893676988024e-18</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>0.1398234781820792</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J187" t="n">
         <v>0</v>
       </c>
       <c r="K187" t="n">
-        <v>0.05256666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -7388,19 +7388,19 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>0.1006260442076919</v>
+        <v>6.297821082599224e-05</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09799899002073409</v>
+        <v>3.953757743578275e-18</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>0.02067722561147137</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J188" t="n">
         <v>0</v>
@@ -7425,25 +7425,25 @@
         <v>0</v>
       </c>
       <c r="E189" t="n">
-        <v>0.1107915064331982</v>
+        <v>2.981049194583031e-05</v>
       </c>
       <c r="F189" t="n">
         <v>0</v>
       </c>
       <c r="G189" t="n">
-        <v>0.1088252097039474</v>
+        <v>8.069077574706895e-21</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>0.09669579764210612</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J189" t="n">
         <v>0</v>
       </c>
       <c r="K189" t="n">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -7462,25 +7462,25 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>0.1418248482056355</v>
+        <v>1.651679482454559e-05</v>
       </c>
       <c r="F190" t="n">
         <v>0</v>
       </c>
       <c r="G190" t="n">
-        <v>0.1412600274993086</v>
+        <v>4.374461094871099e-23</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>0.2224206955883891</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J190" t="n">
         <v>0</v>
       </c>
       <c r="K190" t="n">
-        <v>0.3403476190476192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -7499,25 +7499,25 @@
         <v>0</v>
       </c>
       <c r="E191" t="n">
-        <v>0.1459671013771535</v>
+        <v>6.550671629161923e-05</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>0.1455181200387317</v>
+        <v>5.40795488814226e-18</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>0.1290313451694816</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J191" t="n">
         <v>0</v>
       </c>
       <c r="K191" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -7536,25 +7536,25 @@
         <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>0.1182922528047293</v>
+        <v>7.371775351708728e-05</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>0.1167509697974133</v>
+        <v>1.373298862381199e-17</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>0.07874608456234174</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J192" t="n">
         <v>0</v>
       </c>
       <c r="K192" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -7573,25 +7573,25 @@
         <v>0</v>
       </c>
       <c r="E193" t="n">
-        <v>0.1434698497100931</v>
+        <v>6.054729768565333e-05</v>
       </c>
       <c r="F193" t="n">
         <v>0</v>
       </c>
       <c r="G193" t="n">
-        <v>0.1429530190535727</v>
+        <v>2.886893676988024e-18</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>0.2224206955883891</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J193" t="n">
         <v>0</v>
       </c>
       <c r="K193" t="n">
-        <v>0.3511579365079365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -7610,25 +7610,25 @@
         <v>0</v>
       </c>
       <c r="E194" t="n">
-        <v>0.1434698497100931</v>
+        <v>9.335621154987787e-05</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>0.1429530190535728</v>
+        <v>8.554953597139563e-17</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>0.2224206955883891</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J194" t="n">
         <v>0</v>
       </c>
       <c r="K194" t="n">
-        <v>0.3511579365079365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -7647,25 +7647,25 @@
         <v>0</v>
       </c>
       <c r="E195" t="n">
-        <v>0.133057113706087</v>
+        <v>0.0001229721093560567</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
       </c>
       <c r="G195" t="n">
-        <v>0.1321920181373712</v>
+        <v>6.820192833808543e-16</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>0.2486855762643979</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J195" t="n">
         <v>0</v>
       </c>
       <c r="K195" t="n">
-        <v>0.318520634920635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -7684,25 +7684,25 @@
         <v>0</v>
       </c>
       <c r="E196" t="n">
-        <v>0.1418248482056355</v>
+        <v>0.0001439408134999759</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1412600274993086</v>
+        <v>2.171541739668253e-15</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>0.2224206955883891</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J196" t="n">
         <v>0</v>
       </c>
       <c r="K196" t="n">
-        <v>0.3403476190476192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -7721,25 +7721,25 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>0.1401956208228572</v>
+        <v>0.0001822833305978078</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1395806803274232</v>
+        <v>1.187348751120641e-14</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>0.2224206955883891</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J197" t="n">
         <v>0</v>
       </c>
       <c r="K197" t="n">
-        <v>0.259152380952381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -7758,25 +7758,25 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>0.118995507908122</v>
+        <v>0.0003701726299844019</v>
       </c>
       <c r="F198" t="n">
         <v>0</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1174912805585879</v>
+        <v>1.473340863080203e-12</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>0.07874608456234174</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J198" t="n">
         <v>0</v>
       </c>
       <c r="K198" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -7795,25 +7795,25 @@
         <v>0</v>
       </c>
       <c r="E199" t="n">
-        <v>0.1322832334685517</v>
+        <v>0.0003421552889596261</v>
       </c>
       <c r="F199" t="n">
         <v>0</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1313880178024893</v>
+        <v>8.800846560634543e-13</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>0.2486855762643979</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J199" t="n">
         <v>0</v>
       </c>
       <c r="K199" t="n">
-        <v>0.3394206349206352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -7832,25 +7832,25 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>0.1204128697954106</v>
+        <v>0.000416556562516057</v>
       </c>
       <c r="F200" t="n">
         <v>0</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1189818588996932</v>
+        <v>3.160998601744359e-12</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>0.332906995910665</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J200" t="n">
         <v>0</v>
       </c>
       <c r="K200" t="n">
-        <v>0.3242809523809522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -7869,25 +7869,25 @@
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>0.1141479347820778</v>
+        <v>0.0006421532104184679</v>
       </c>
       <c r="F201" t="n">
         <v>0</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1123785240271764</v>
+        <v>4.708320607387062e-11</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
       </c>
       <c r="I201" t="n">
-        <v>0.3572495936248563</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J201" t="n">
         <v>0</v>
       </c>
       <c r="K201" t="n">
-        <v>0.4348238095238097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -7906,25 +7906,25 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>0.1315131714435616</v>
+        <v>0.001586536539404117</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
       </c>
       <c r="G202" t="n">
-        <v>0.130587400075555</v>
+        <v>8.131253782453931e-09</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
       </c>
       <c r="I202" t="n">
-        <v>0.2486855762643979</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J202" t="n">
         <v>0</v>
       </c>
       <c r="K202" t="n">
-        <v>0.4784579365079366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -7943,25 +7943,25 @@
         <v>0</v>
       </c>
       <c r="E203" t="n">
-        <v>0.1232913294157772</v>
+        <v>0.00535552951756485</v>
       </c>
       <c r="F203" t="n">
         <v>0</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1220029600261764</v>
+        <v>2.932307525356961e-06</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
       </c>
       <c r="I203" t="n">
-        <v>0.4580457780235208</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K203" t="n">
-        <v>0.8170904761904763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -7980,25 +7980,25 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>0.1182922528047293</v>
+        <v>0.002172540979524293</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1167509697974133</v>
+        <v>4.171215627050454e-08</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
       </c>
       <c r="I204" t="n">
-        <v>0.07874608456234174</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J204" t="n">
         <v>0</v>
       </c>
       <c r="K204" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -8017,25 +8017,25 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>0.1081688715458029</v>
+        <v>0.003217208096515458</v>
       </c>
       <c r="F205" t="n">
         <v>0</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1060412759481538</v>
+        <v>2.875307040869702e-07</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
       </c>
       <c r="I205" t="n">
-        <v>0.3111714673389548</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J205" t="n">
         <v>0</v>
       </c>
       <c r="K205" t="n">
-        <v>0.4400444444444442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -8054,19 +8054,19 @@
         <v>0</v>
       </c>
       <c r="E206" t="n">
-        <v>0.09821746485071947</v>
+        <v>0.001466591052360194</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
       </c>
       <c r="G206" t="n">
-        <v>0.09542015630658535</v>
+        <v>5.335208978107141e-09</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
       </c>
       <c r="I206" t="n">
-        <v>0.02067722561147137</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J206" t="n">
         <v>0</v>
@@ -8091,25 +8091,25 @@
         <v>0</v>
       </c>
       <c r="E207" t="n">
-        <v>0.08854583979185127</v>
+        <v>0.001303437338021963</v>
       </c>
       <c r="F207" t="n">
         <v>0</v>
       </c>
       <c r="G207" t="n">
-        <v>0.08501614696962961</v>
+        <v>2.808840723875825e-09</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
       </c>
       <c r="I207" t="n">
-        <v>0.3357296581824662</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J207" t="n">
         <v>0</v>
       </c>
       <c r="K207" t="n">
-        <v>0.4263333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -8128,19 +8128,19 @@
         <v>0</v>
       </c>
       <c r="E208" t="n">
-        <v>0.09821746485071944</v>
+        <v>0.0006173803663283923</v>
       </c>
       <c r="F208" t="n">
         <v>0</v>
       </c>
       <c r="G208" t="n">
-        <v>0.09542015630658524</v>
+        <v>3.706684453212001e-11</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
       </c>
       <c r="I208" t="n">
-        <v>0.02067722561147137</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J208" t="n">
         <v>0</v>
@@ -8165,19 +8165,19 @@
         <v>0</v>
       </c>
       <c r="E209" t="n">
-        <v>0.0837809822068228</v>
+        <v>0.001716274934745837</v>
       </c>
       <c r="F209" t="n">
         <v>0</v>
       </c>
       <c r="G209" t="n">
-        <v>0.07986445813784526</v>
+        <v>1.233020573811138e-08</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
       </c>
       <c r="I209" t="n">
-        <v>0.0131942687623732</v>
+        <v>0.002364712369076532</v>
       </c>
       <c r="J209" t="n">
         <v>0</v>
@@ -8202,25 +8202,25 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>0.0811493820329328</v>
+        <v>0.01760946041987482</v>
       </c>
       <c r="F210" t="n">
         <v>0</v>
       </c>
       <c r="G210" t="n">
-        <v>0.07607315616628021</v>
+        <v>0.01478178607579468</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
       </c>
       <c r="I210" t="n">
-        <v>0.03978333796308384</v>
+        <v>0.06101131361632416</v>
       </c>
       <c r="J210" t="n">
         <v>0</v>
       </c>
       <c r="K210" t="n">
-        <v>0.0006666666666666666</v>
+        <v>0.2477150793650795</v>
       </c>
     </row>
     <row r="211">
@@ -8239,25 +8239,25 @@
         <v>0</v>
       </c>
       <c r="E211" t="n">
-        <v>0.07466797623584424</v>
+        <v>0.02042829421123093</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
       </c>
       <c r="G211" t="n">
-        <v>0.06890292165689296</v>
+        <v>0.01808117266296115</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
       </c>
       <c r="I211" t="n">
-        <v>0.03978333796308384</v>
+        <v>0.06101131361632416</v>
       </c>
       <c r="J211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K211" t="n">
-        <v>0</v>
+        <v>0.652</v>
       </c>
     </row>
     <row r="212">
@@ -8276,25 +8276,25 @@
         <v>0</v>
       </c>
       <c r="E212" t="n">
-        <v>0.07624225941207322</v>
+        <v>0.01944274136612677</v>
       </c>
       <c r="F212" t="n">
         <v>0</v>
       </c>
       <c r="G212" t="n">
-        <v>0.0706446763101564</v>
+        <v>0.0169177014340031</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
       </c>
       <c r="I212" t="n">
-        <v>0.03978333796308384</v>
+        <v>0.06101131361632416</v>
       </c>
       <c r="J212" t="n">
         <v>0</v>
       </c>
       <c r="K212" t="n">
-        <v>0</v>
+        <v>0.242</v>
       </c>
     </row>
     <row r="213">
@@ -8313,25 +8313,25 @@
         <v>0</v>
       </c>
       <c r="E213" t="n">
-        <v>0.07363511240150812</v>
+        <v>0.03102797467099026</v>
       </c>
       <c r="F213" t="n">
         <v>0</v>
       </c>
       <c r="G213" t="n">
-        <v>0.06776026944359677</v>
+        <v>0.03100754591167409</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
       </c>
       <c r="I213" t="n">
-        <v>0.03978333796308384</v>
+        <v>0.02508451166125294</v>
       </c>
       <c r="J213" t="n">
         <v>0</v>
       </c>
       <c r="K213" t="n">
-        <v>0.015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -8350,19 +8350,19 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>0.08059024102719037</v>
+        <v>0.0333858423536031</v>
       </c>
       <c r="F214" t="n">
         <v>0</v>
       </c>
       <c r="G214" t="n">
-        <v>0.07545475382893792</v>
+        <v>0.03394079651557588</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
       </c>
       <c r="I214" t="n">
-        <v>0.03978333796308384</v>
+        <v>0.02508451166125294</v>
       </c>
       <c r="J214" t="n">
         <v>0</v>
@@ -8387,25 +8387,25 @@
         <v>0</v>
       </c>
       <c r="E215" t="n">
-        <v>0.07061497060626412</v>
+        <v>0.03770473260282892</v>
       </c>
       <c r="F215" t="n">
         <v>0</v>
       </c>
       <c r="G215" t="n">
-        <v>0.0644200455429223</v>
+        <v>0.03933414909736857</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
       </c>
       <c r="I215" t="n">
-        <v>0.1716184453525062</v>
+        <v>0.02508451166125294</v>
       </c>
       <c r="J215" t="n">
         <v>0</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1509523809523809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -8424,25 +8424,25 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>0.07414988996917776</v>
+        <v>0.0581148912415804</v>
       </c>
       <c r="F216" t="n">
         <v>0</v>
       </c>
       <c r="G216" t="n">
-        <v>0.0683297524557108</v>
+        <v>0.06474817114062308</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
       </c>
       <c r="I216" t="n">
-        <v>0.03978333796308384</v>
+        <v>0.02068294593049223</v>
       </c>
       <c r="J216" t="n">
         <v>0</v>
       </c>
       <c r="K216" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="217">
@@ -8461,19 +8461,19 @@
         <v>0</v>
       </c>
       <c r="E217" t="n">
-        <v>0.09120994366707787</v>
+        <v>0.05158343970124118</v>
       </c>
       <c r="F217" t="n">
         <v>0</v>
       </c>
       <c r="G217" t="n">
-        <v>0.0871849107988415</v>
+        <v>0.05666318925819387</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
       </c>
       <c r="I217" t="n">
-        <v>0.04036560346818637</v>
+        <v>0.02508451166125294</v>
       </c>
       <c r="J217" t="n">
         <v>0</v>
@@ -8498,19 +8498,19 @@
         <v>0</v>
       </c>
       <c r="E218" t="n">
-        <v>0.1044713702004503</v>
+        <v>0.04575039319277398</v>
       </c>
       <c r="F218" t="n">
         <v>0</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1017584631733463</v>
+        <v>0.04939546755004117</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
       </c>
       <c r="I218" t="n">
-        <v>0.04128038833554652</v>
+        <v>0.02508451166125294</v>
       </c>
       <c r="J218" t="n">
         <v>0</v>
@@ -8535,25 +8535,25 @@
         <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>0.1132232532996274</v>
+        <v>0.06389084805839848</v>
       </c>
       <c r="F219" t="n">
         <v>0</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1113130035617969</v>
+        <v>0.07183910259271921</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
       </c>
       <c r="I219" t="n">
-        <v>0.05104625151043056</v>
+        <v>0.02068294593049223</v>
       </c>
       <c r="J219" t="n">
         <v>0</v>
       </c>
       <c r="K219" t="n">
-        <v>0.03879920634920635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -8572,25 +8572,25 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>0.1073201755589089</v>
+        <v>0.07530123506394915</v>
       </c>
       <c r="F220" t="n">
         <v>0</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1048746203280841</v>
+        <v>0.08566024496591057</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
       </c>
       <c r="I220" t="n">
-        <v>0.1896635680362259</v>
+        <v>0.02068294593049223</v>
       </c>
       <c r="J220" t="n">
         <v>0</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2982963203463204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -8609,25 +8609,25 @@
         <v>0</v>
       </c>
       <c r="E221" t="n">
-        <v>0.1095014232635778</v>
+        <v>0.08074315093631346</v>
       </c>
       <c r="F221" t="n">
         <v>0</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1072566709009665</v>
+        <v>0.09215888829923163</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
       </c>
       <c r="I221" t="n">
-        <v>0.05104625151043056</v>
+        <v>0.02068294593049223</v>
       </c>
       <c r="J221" t="n">
         <v>0</v>
       </c>
       <c r="K221" t="n">
-        <v>0.008966666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
@@ -8646,25 +8646,25 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>0.1087700542577303</v>
+        <v>0.09061402081990239</v>
       </c>
       <c r="F222" t="n">
         <v>0</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1064583578309141</v>
+        <v>0.1037894111025485</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
       </c>
       <c r="I222" t="n">
-        <v>0.05104625151043056</v>
+        <v>0.02068294593049223</v>
       </c>
       <c r="J222" t="n">
         <v>0</v>
       </c>
       <c r="K222" t="n">
-        <v>0.008966666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -8683,25 +8683,25 @@
         <v>0</v>
       </c>
       <c r="E223" t="n">
-        <v>0.1080429774505217</v>
+        <v>0.08263545731794664</v>
       </c>
       <c r="F223" t="n">
         <v>0</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1056643437430956</v>
+        <v>0.09440424620810045</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
       </c>
       <c r="I223" t="n">
-        <v>0.05104625151043056</v>
+        <v>0.02068294593049223</v>
       </c>
       <c r="J223" t="n">
         <v>0</v>
       </c>
       <c r="K223" t="n">
-        <v>0.11845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -8720,25 +8720,25 @@
         <v>0</v>
       </c>
       <c r="E224" t="n">
-        <v>0.09897365887419385</v>
+        <v>0.05541402064144966</v>
       </c>
       <c r="F224" t="n">
         <v>0</v>
       </c>
       <c r="G224" t="n">
-        <v>0.09572943227760755</v>
+        <v>0.06141277604673903</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
       </c>
       <c r="I224" t="n">
-        <v>0.04128038833554652</v>
+        <v>0.4571334068239249</v>
       </c>
       <c r="J224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K224" t="n">
-        <v>0.02083333333333334</v>
+        <v>0.846</v>
       </c>
     </row>
     <row r="225">
@@ -8757,25 +8757,25 @@
         <v>0</v>
       </c>
       <c r="E225" t="n">
-        <v>0.1379338115917263</v>
+        <v>0.02613668686254478</v>
       </c>
       <c r="F225" t="n">
         <v>0</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1379613731935563</v>
+        <v>0.02497192004564997</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
       </c>
       <c r="I225" t="n">
-        <v>0.2755347072363191</v>
+        <v>0.02508451166125294</v>
       </c>
       <c r="J225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K225" t="n">
-        <v>0.6503999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -8794,25 +8794,25 @@
         <v>0</v>
       </c>
       <c r="E226" t="n">
-        <v>0.1538554854435282</v>
+        <v>0.03027844535809338</v>
       </c>
       <c r="F226" t="n">
         <v>0</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1548554436010194</v>
+        <v>0.03007768652385492</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
       </c>
       <c r="I226" t="n">
-        <v>0.1740221119885869</v>
+        <v>0.02508451166125294</v>
       </c>
       <c r="J226" t="n">
         <v>0</v>
       </c>
       <c r="K226" t="n">
-        <v>0.008400000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -8831,25 +8831,25 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>0.1558243069840588</v>
+        <v>0.02954646999884062</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1569292303265685</v>
+        <v>0.02917106621497601</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
       </c>
       <c r="I227" t="n">
-        <v>0.1740221119885869</v>
+        <v>0.02508451166125294</v>
       </c>
       <c r="J227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K227" t="n">
-        <v>0.7699793650793652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -8868,25 +8868,25 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>0.1528787305671262</v>
+        <v>0.03680004119585093</v>
       </c>
       <c r="F228" t="n">
         <v>0</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1538253696168368</v>
+        <v>0.03820300676528727</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
       </c>
       <c r="I228" t="n">
-        <v>0.1740221119885869</v>
+        <v>0.02508451166125294</v>
       </c>
       <c r="J228" t="n">
         <v>0</v>
       </c>
       <c r="K228" t="n">
-        <v>0.4737904761904763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -8905,25 +8905,25 @@
         <v>0</v>
       </c>
       <c r="E229" t="n">
-        <v>0.1528787305671262</v>
+        <v>0.0425577287069187</v>
       </c>
       <c r="F229" t="n">
         <v>0</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1538253696168368</v>
+        <v>0.04540508938078789</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
       </c>
       <c r="I229" t="n">
-        <v>0.1740221119885869</v>
+        <v>0.02508451166125294</v>
       </c>
       <c r="J229" t="n">
         <v>0</v>
       </c>
       <c r="K229" t="n">
-        <v>0.4737904761904763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -8942,25 +8942,25 @@
         <v>0</v>
       </c>
       <c r="E230" t="n">
-        <v>0.1528787305671262</v>
+        <v>0.04917026977563954</v>
       </c>
       <c r="F230" t="n">
         <v>0</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1538253696168368</v>
+        <v>0.0536609701919399</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
       </c>
       <c r="I230" t="n">
-        <v>0.1740221119885869</v>
+        <v>0.02508451166125294</v>
       </c>
       <c r="J230" t="n">
         <v>0</v>
       </c>
       <c r="K230" t="n">
-        <v>0.4737904761904763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
@@ -8979,25 +8979,25 @@
         <v>0</v>
       </c>
       <c r="E231" t="n">
-        <v>0.1588159970012465</v>
+        <v>0.0654163074888786</v>
       </c>
       <c r="F231" t="n">
         <v>0</v>
       </c>
       <c r="G231" t="n">
-        <v>0.160074012791216</v>
+        <v>0.07370165328747548</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
       </c>
       <c r="I231" t="n">
-        <v>0.1740221119885869</v>
+        <v>0.02068294593049223</v>
       </c>
       <c r="J231" t="n">
         <v>0</v>
       </c>
       <c r="K231" t="n">
-        <v>0.006733333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -9016,25 +9016,25 @@
         <v>0</v>
       </c>
       <c r="E232" t="n">
-        <v>0.1712499080409732</v>
+        <v>0.06389084805839848</v>
       </c>
       <c r="F232" t="n">
         <v>0</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1730621638460449</v>
+        <v>0.07183910259271921</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
       </c>
       <c r="I232" t="n">
-        <v>0.2059657876416815</v>
+        <v>0.02068294593049223</v>
       </c>
       <c r="J232" t="n">
         <v>0</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2673484848484852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -9053,25 +9053,25 @@
         <v>0</v>
       </c>
       <c r="E233" t="n">
-        <v>0.170184934840251</v>
+        <v>0.06697558295592441</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1719548504820662</v>
+        <v>0.0756008947788788</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
       </c>
       <c r="I233" t="n">
-        <v>0.2059657876416815</v>
+        <v>0.02068294593049223</v>
       </c>
       <c r="J233" t="n">
         <v>0</v>
       </c>
       <c r="K233" t="n">
-        <v>0.314350432900433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -9090,25 +9090,25 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>0.1608362301597551</v>
+        <v>0.08654153990906518</v>
       </c>
       <c r="F234" t="n">
         <v>0</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1621932696473435</v>
+        <v>0.09901550876076937</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
       </c>
       <c r="I234" t="n">
-        <v>0.1740221119885869</v>
+        <v>0.02068294593049223</v>
       </c>
       <c r="J234" t="n">
         <v>0</v>
       </c>
       <c r="K234" t="n">
-        <v>0.3362000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -9127,25 +9127,25 @@
         <v>0</v>
       </c>
       <c r="E235" t="n">
-        <v>0.1777509384698178</v>
+        <v>0.0788904508453854</v>
       </c>
       <c r="F235" t="n">
         <v>0</v>
       </c>
       <c r="G235" t="n">
-        <v>0.179801118212626</v>
+        <v>0.0899533115775949</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
       </c>
       <c r="I235" t="n">
-        <v>0.3368907490090808</v>
+        <v>0.02068294593049223</v>
       </c>
       <c r="J235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K235" t="n">
-        <v>0.6394841269841274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -9164,25 +9164,25 @@
         <v>0</v>
       </c>
       <c r="E236" t="n">
-        <v>0.1867177088807734</v>
+        <v>0.09704643011840758</v>
       </c>
       <c r="F236" t="n">
         <v>0</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1890390240485088</v>
+        <v>0.1112598790095122</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
       </c>
       <c r="I236" t="n">
-        <v>0.4595151378895751</v>
+        <v>0.02068294593049223</v>
       </c>
       <c r="J236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K236" t="n">
-        <v>0.9201406926406925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -9201,25 +9201,25 @@
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>0.1924967034941387</v>
+        <v>0.1416523223701919</v>
       </c>
       <c r="F237" t="n">
         <v>0</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1949584833116279</v>
+        <v>0.1608560290698705</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
       </c>
       <c r="I237" t="n">
-        <v>0.07338243035121433</v>
+        <v>0.143684290864204</v>
       </c>
       <c r="J237" t="n">
         <v>0</v>
       </c>
       <c r="K237" t="n">
-        <v>0</v>
+        <v>0.2437215728715731</v>
       </c>
     </row>
     <row r="238">
@@ -9238,25 +9238,25 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>0.1913301045215973</v>
+        <v>0.1680063833327313</v>
       </c>
       <c r="F238" t="n">
         <v>0</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1937656608233757</v>
+        <v>0.1885577153677511</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
       </c>
       <c r="I238" t="n">
-        <v>0.07338243035121433</v>
+        <v>0.0304388683727915</v>
       </c>
       <c r="J238" t="n">
         <v>0</v>
       </c>
       <c r="K238" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="239">
@@ -9275,25 +9275,25 @@
         <v>0</v>
       </c>
       <c r="E239" t="n">
-        <v>0.170184934840251</v>
+        <v>0.1326978505407297</v>
       </c>
       <c r="F239" t="n">
         <v>0</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1719548504820662</v>
+        <v>0.1511903369495411</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
       </c>
       <c r="I239" t="n">
-        <v>0.2059657876416815</v>
+        <v>0.02068294593049223</v>
       </c>
       <c r="J239" t="n">
         <v>0</v>
       </c>
       <c r="K239" t="n">
-        <v>0.314350432900433</v>
+        <v>0.0009</v>
       </c>
     </row>
     <row r="240">
@@ -9312,25 +9312,25 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>0.1948461345397426</v>
+        <v>0.1416523223701919</v>
       </c>
       <c r="F240" t="n">
         <v>0</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1973574845640954</v>
+        <v>0.1608560290698705</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
       </c>
       <c r="I240" t="n">
-        <v>0.07338243035121433</v>
+        <v>0.143684290864204</v>
       </c>
       <c r="J240" t="n">
         <v>0</v>
       </c>
       <c r="K240" t="n">
-        <v>0.01741984126984127</v>
+        <v>0.2437215728715731</v>
       </c>
     </row>
     <row r="241">
@@ -9349,25 +9349,25 @@
         <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>0.1821914531973265</v>
+        <v>0.1788521434929802</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1843840795901873</v>
+        <v>0.1996623533361606</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
       </c>
       <c r="I241" t="n">
-        <v>0.1085848588364007</v>
+        <v>0.0304388683727915</v>
       </c>
       <c r="J241" t="n">
         <v>0</v>
       </c>
       <c r="K241" t="n">
-        <v>0.007002380952380953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -9386,19 +9386,19 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>0.1913301045215973</v>
+        <v>0.1825870477639471</v>
       </c>
       <c r="F242" t="n">
         <v>0</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1937656608233757</v>
+        <v>0.2034496207365721</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
       </c>
       <c r="I242" t="n">
-        <v>0.07338243035121433</v>
+        <v>0.0304388683727915</v>
       </c>
       <c r="J242" t="n">
         <v>0</v>
@@ -9423,25 +9423,25 @@
         <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>0.1821914531973265</v>
+        <v>0.2021701603906754</v>
       </c>
       <c r="F243" t="n">
         <v>0</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1843840795901873</v>
+        <v>0.2230191644090939</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
       </c>
       <c r="I243" t="n">
-        <v>0.1085848588364007</v>
+        <v>0.0304388683727915</v>
       </c>
       <c r="J243" t="n">
         <v>0</v>
       </c>
       <c r="K243" t="n">
-        <v>0.007002380952380953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -9460,25 +9460,25 @@
         <v>0</v>
       </c>
       <c r="E244" t="n">
-        <v>0.1844438370135343</v>
+        <v>0.2553898885939013</v>
       </c>
       <c r="F244" t="n">
         <v>0</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1867025709893073</v>
+        <v>0.2741021308429542</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
       </c>
       <c r="I244" t="n">
-        <v>0.2027019772999153</v>
+        <v>0.04161781431613581</v>
       </c>
       <c r="J244" t="n">
         <v>0</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2381039682539684</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="245">
@@ -9497,25 +9497,25 @@
         <v>0</v>
       </c>
       <c r="E245" t="n">
-        <v>0.2020245696591047</v>
+        <v>0.2412665032312293</v>
       </c>
       <c r="F245" t="n">
         <v>0</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2046608860720153</v>
+        <v>0.260810410796217</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
       </c>
       <c r="I245" t="n">
-        <v>0.1290794564487202</v>
+        <v>0.04161781431613581</v>
       </c>
       <c r="J245" t="n">
         <v>0</v>
       </c>
       <c r="K245" t="n">
-        <v>0.01199365079365079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
@@ -9534,25 +9534,25 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>0.1733957045237965</v>
+        <v>0.285220554085077</v>
       </c>
       <c r="F246" t="n">
         <v>0</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1752903832383336</v>
+        <v>0.3016497290388319</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
       </c>
       <c r="I246" t="n">
-        <v>0.1775810992321102</v>
+        <v>0.1338727946907</v>
       </c>
       <c r="J246" t="n">
         <v>0</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1560394660894662</v>
+        <v>0.1494666666666667</v>
       </c>
     </row>
     <row r="247">
@@ -9571,25 +9571,25 @@
         <v>0</v>
       </c>
       <c r="E247" t="n">
-        <v>0.1777509384698178</v>
+        <v>0.2700457778110764</v>
       </c>
       <c r="F247" t="n">
         <v>0</v>
       </c>
       <c r="G247" t="n">
-        <v>0.179801118212626</v>
+        <v>0.2877201488391197</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
       </c>
       <c r="I247" t="n">
-        <v>0.3368907490090808</v>
+        <v>0.2603989146062287</v>
       </c>
       <c r="J247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K247" t="n">
-        <v>0.6394841269841274</v>
+        <v>0.3527674603174601</v>
       </c>
     </row>
     <row r="248">
@@ -9608,25 +9608,25 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>0.1670216059086647</v>
+        <v>0.2553898885939013</v>
       </c>
       <c r="F248" t="n">
         <v>0</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1686601222261572</v>
+        <v>0.2741021308429542</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
       </c>
       <c r="I248" t="n">
-        <v>0.1254452833787519</v>
+        <v>0.04161781431613581</v>
       </c>
       <c r="J248" t="n">
         <v>0</v>
       </c>
       <c r="K248" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="249">
@@ -9645,25 +9645,25 @@
         <v>0</v>
       </c>
       <c r="E249" t="n">
-        <v>0.1598235287432952</v>
+        <v>0.3336607650647503</v>
       </c>
       <c r="F249" t="n">
         <v>0</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1611313678522513</v>
+        <v>0.3451403230603063</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
       </c>
       <c r="I249" t="n">
-        <v>0.1740221119885869</v>
+        <v>0.1390686896793422</v>
       </c>
       <c r="J249" t="n">
         <v>0</v>
       </c>
       <c r="K249" t="n">
-        <v>0.04184523809523809</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="250">
@@ -9682,25 +9682,25 @@
         <v>0</v>
       </c>
       <c r="E250" t="n">
-        <v>0.1335220102348607</v>
+        <v>0.3008965490415142</v>
       </c>
       <c r="F250" t="n">
         <v>0</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1332412597138936</v>
+        <v>0.3158747710817317</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
       </c>
       <c r="I250" t="n">
-        <v>0.08418730324357485</v>
+        <v>0.1816362957077412</v>
       </c>
       <c r="J250" t="n">
         <v>0</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1039460317460318</v>
+        <v>0.1821269841269841</v>
       </c>
     </row>
     <row r="251">
@@ -9719,25 +9719,25 @@
         <v>0</v>
       </c>
       <c r="E251" t="n">
-        <v>0.146183198530987</v>
+        <v>0.3170519494534989</v>
       </c>
       <c r="F251" t="n">
         <v>0</v>
       </c>
       <c r="G251" t="n">
-        <v>0.146742061772577</v>
+        <v>0.3303778595203587</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
       </c>
       <c r="I251" t="n">
-        <v>0.1740221119885869</v>
+        <v>0.2052881296260345</v>
       </c>
       <c r="J251" t="n">
         <v>0</v>
       </c>
       <c r="K251" t="n">
-        <v>0.3327051226551226</v>
+        <v>0.0443904761904762</v>
       </c>
     </row>
     <row r="252">
@@ -9756,25 +9756,25 @@
         <v>0</v>
       </c>
       <c r="E252" t="n">
-        <v>0.1670216059086647</v>
+        <v>0.3008965490415142</v>
       </c>
       <c r="F252" t="n">
         <v>0</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1686601222261572</v>
+        <v>0.3158747710817317</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
       </c>
       <c r="I252" t="n">
-        <v>0.1254452833787519</v>
+        <v>0.1816362957077412</v>
       </c>
       <c r="J252" t="n">
         <v>0</v>
       </c>
       <c r="K252" t="n">
-        <v>0</v>
+        <v>0.1821269841269841</v>
       </c>
     </row>
     <row r="253">
@@ -9793,25 +9793,25 @@
         <v>0</v>
       </c>
       <c r="E253" t="n">
-        <v>0.1538554854435282</v>
+        <v>0.3280758893709591</v>
       </c>
       <c r="F253" t="n">
         <v>0</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1548554436010194</v>
+        <v>0.3401918846440456</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
       </c>
       <c r="I253" t="n">
-        <v>0.1740221119885869</v>
+        <v>0.1390686896793422</v>
       </c>
       <c r="J253" t="n">
         <v>0</v>
       </c>
       <c r="K253" t="n">
-        <v>0.008400000000000001</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="254">
@@ -9830,25 +9830,25 @@
         <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>0.1639054617160763</v>
+        <v>0.3008965490415142</v>
       </c>
       <c r="F254" t="n">
         <v>0</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1654062496705558</v>
+        <v>0.3158747710817317</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
       </c>
       <c r="I254" t="n">
-        <v>0.1386813671456047</v>
+        <v>0.1816362957077412</v>
       </c>
       <c r="J254" t="n">
         <v>0</v>
       </c>
       <c r="K254" t="n">
-        <v>0</v>
+        <v>0.1821269841269841</v>
       </c>
     </row>
     <row r="255">
@@ -9867,25 +9867,25 @@
         <v>0</v>
       </c>
       <c r="E255" t="n">
-        <v>0.1370417650127106</v>
+        <v>0.2801056472141802</v>
       </c>
       <c r="F255" t="n">
         <v>0</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1370083408513276</v>
+        <v>0.29697288388881</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
       </c>
       <c r="I255" t="n">
-        <v>0.2755347072363191</v>
+        <v>0.1338727946907</v>
       </c>
       <c r="J255" t="n">
         <v>0</v>
       </c>
       <c r="K255" t="n">
-        <v>0.2731666666666667</v>
+        <v>0.0035</v>
       </c>
     </row>
     <row r="256">
@@ -9904,25 +9904,25 @@
         <v>0</v>
       </c>
       <c r="E256" t="n">
-        <v>0.1499789425132319</v>
+        <v>0.2801056472141802</v>
       </c>
       <c r="F256" t="n">
         <v>0</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1507624162440687</v>
+        <v>0.29697288388881</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
       </c>
       <c r="I256" t="n">
-        <v>0.1740221119885869</v>
+        <v>0.1338727946907</v>
       </c>
       <c r="J256" t="n">
         <v>0</v>
       </c>
       <c r="K256" t="n">
-        <v>0</v>
+        <v>0.0035</v>
       </c>
     </row>
     <row r="257">
@@ -9941,25 +9941,25 @@
         <v>0</v>
       </c>
       <c r="E257" t="n">
-        <v>0.1788530530852605</v>
+        <v>0.3225392453532757</v>
       </c>
       <c r="F257" t="n">
         <v>0</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1809400960304678</v>
+        <v>0.3352708181909867</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
       </c>
       <c r="I257" t="n">
-        <v>0.1085848588364007</v>
+        <v>0.4353329296233069</v>
       </c>
       <c r="J257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K257" t="n">
-        <v>0.002</v>
+        <v>0.656</v>
       </c>
     </row>
     <row r="258">
@@ -9978,25 +9978,25 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>0.1352722308397547</v>
+        <v>0.4223146209955282</v>
       </c>
       <c r="F258" t="n">
         <v>0</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1351157980390922</v>
+        <v>0.422111254927428</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
       </c>
       <c r="I258" t="n">
-        <v>0.2755347072363191</v>
+        <v>0.2203390249692594</v>
       </c>
       <c r="J258" t="n">
         <v>0</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3393698412698412</v>
+        <v>0.03273492063492064</v>
       </c>
     </row>
     <row r="259">
@@ -10015,25 +10015,25 @@
         <v>0</v>
       </c>
       <c r="E259" t="n">
-        <v>0.148071021976182</v>
+        <v>0.3681140795121135</v>
       </c>
       <c r="F259" t="n">
         <v>0</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1487431603654492</v>
+        <v>0.3753628320462569</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
       </c>
       <c r="I259" t="n">
-        <v>0.1740221119885869</v>
+        <v>0.1789664825808599</v>
       </c>
       <c r="J259" t="n">
         <v>0</v>
       </c>
       <c r="K259" t="n">
-        <v>0.08228809523809526</v>
+        <v>0.0024</v>
       </c>
     </row>
     <row r="260">
@@ -10052,25 +10052,25 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>0.1538554854435282</v>
+        <v>0.3225392453532757</v>
       </c>
       <c r="F260" t="n">
         <v>0</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1548554436010194</v>
+        <v>0.3352708181909867</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
       </c>
       <c r="I260" t="n">
-        <v>0.1740221119885869</v>
+        <v>0.4353329296233069</v>
       </c>
       <c r="J260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K260" t="n">
-        <v>0.008400000000000001</v>
+        <v>0.656</v>
       </c>
     </row>
     <row r="261">
@@ -10089,25 +10089,25 @@
         <v>0</v>
       </c>
       <c r="E261" t="n">
-        <v>0.170184934840251</v>
+        <v>0.2956167870058798</v>
       </c>
       <c r="F261" t="n">
         <v>0</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1719548504820662</v>
+        <v>0.311101309884495</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
       </c>
       <c r="I261" t="n">
-        <v>0.2059657876416815</v>
+        <v>0.1816362957077412</v>
       </c>
       <c r="J261" t="n">
         <v>0</v>
       </c>
       <c r="K261" t="n">
-        <v>0.314350432900433</v>
+        <v>0.07136666666666666</v>
       </c>
     </row>
     <row r="262">
@@ -10126,19 +10126,19 @@
         <v>0</v>
       </c>
       <c r="E262" t="n">
-        <v>0.1924967034941386</v>
+        <v>0.2366788299433246</v>
       </c>
       <c r="F262" t="n">
         <v>0</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1949584833116277</v>
+        <v>0.2564546933875356</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
       </c>
       <c r="I262" t="n">
-        <v>0.07338243035121433</v>
+        <v>0.04161781431613581</v>
       </c>
       <c r="J262" t="n">
         <v>0</v>
@@ -10163,25 +10163,25 @@
         <v>0</v>
       </c>
       <c r="E263" t="n">
-        <v>0.2069188807298502</v>
+        <v>0.3170519494534989</v>
       </c>
       <c r="F263" t="n">
         <v>0</v>
       </c>
       <c r="G263" t="n">
-        <v>0.2096179328982781</v>
+        <v>0.3303778595203587</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
       </c>
       <c r="I263" t="n">
-        <v>0.2650567525426242</v>
+        <v>0.2052881296260345</v>
       </c>
       <c r="J263" t="n">
         <v>0</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3715</v>
+        <v>0.0443904761904762</v>
       </c>
     </row>
     <row r="264">
@@ -10200,25 +10200,25 @@
         <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>0.08003461707729242</v>
+        <v>0.2750471704575762</v>
       </c>
       <c r="F264" t="n">
         <v>0</v>
       </c>
       <c r="G264" t="n">
-        <v>0.07484019001181398</v>
+        <v>0.2923294916510476</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
       </c>
       <c r="I264" t="n">
-        <v>0.03978333796308384</v>
+        <v>0.1338727946907</v>
       </c>
       <c r="J264" t="n">
         <v>0</v>
       </c>
       <c r="K264" t="n">
-        <v>0</v>
+        <v>0.01705238095238095</v>
       </c>
     </row>
     <row r="265">
@@ -10237,25 +10237,25 @@
         <v>0</v>
       </c>
       <c r="E265" t="n">
-        <v>0.06400821423340031</v>
+        <v>0.2146523805180481</v>
       </c>
       <c r="F265" t="n">
         <v>0</v>
       </c>
       <c r="G265" t="n">
-        <v>0.05712421383792509</v>
+        <v>0.2352577567052108</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
       </c>
       <c r="I265" t="n">
-        <v>0.01867414985460692</v>
+        <v>0.170052680849871</v>
       </c>
       <c r="J265" t="n">
         <v>0</v>
       </c>
       <c r="K265" t="n">
-        <v>0</v>
+        <v>0.3282904761904762</v>
       </c>
     </row>
     <row r="266">
@@ -10274,25 +10274,25 @@
         <v>0</v>
       </c>
       <c r="E266" t="n">
-        <v>0.07363511240150812</v>
+        <v>0.1941544182506669</v>
       </c>
       <c r="F266" t="n">
         <v>0</v>
       </c>
       <c r="G266" t="n">
-        <v>0.06776026944359677</v>
+        <v>0.215065693249769</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
       </c>
       <c r="I266" t="n">
-        <v>0.03978333796308384</v>
+        <v>0.0304388683727915</v>
       </c>
       <c r="J266" t="n">
         <v>0</v>
       </c>
       <c r="K266" t="n">
-        <v>0.015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
@@ -10311,25 +10311,25 @@
         <v>0</v>
       </c>
       <c r="E267" t="n">
-        <v>0.09246471974113529</v>
+        <v>0.1645097077914794</v>
       </c>
       <c r="F267" t="n">
         <v>0</v>
       </c>
       <c r="G267" t="n">
-        <v>0.08856801960843358</v>
+        <v>0.1849424618424325</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
       </c>
       <c r="I267" t="n">
-        <v>0.04036560346818637</v>
+        <v>0.0304388683727915</v>
       </c>
       <c r="J267" t="n">
         <v>0</v>
       </c>
       <c r="K267" t="n">
-        <v>0</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="268">
@@ -10348,25 +10348,25 @@
         <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>0.1178346669623496</v>
+        <v>0.1645097077914794</v>
       </c>
       <c r="F268" t="n">
         <v>0</v>
       </c>
       <c r="G268" t="n">
-        <v>0.1163241046709573</v>
+        <v>0.1849424618424325</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
       </c>
       <c r="I268" t="n">
-        <v>0.0684619069024673</v>
+        <v>0.0304388683727915</v>
       </c>
       <c r="J268" t="n">
         <v>0</v>
       </c>
       <c r="K268" t="n">
-        <v>0.1067285714285714</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="269">
@@ -10385,19 +10385,19 @@
         <v>0</v>
       </c>
       <c r="E269" t="n">
-        <v>0.1109771068032362</v>
+        <v>0.1902379660219266</v>
       </c>
       <c r="F269" t="n">
         <v>0</v>
       </c>
       <c r="G269" t="n">
-        <v>0.1088662266392705</v>
+        <v>0.2111515241390488</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
       </c>
       <c r="I269" t="n">
-        <v>0.05104625151043056</v>
+        <v>0.0304388683727915</v>
       </c>
       <c r="J269" t="n">
         <v>0</v>
@@ -10422,25 +10422,25 @@
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>0.1132232532996274</v>
+        <v>0.1543701813444034</v>
       </c>
       <c r="F270" t="n">
         <v>0</v>
       </c>
       <c r="G270" t="n">
-        <v>0.1113130035617968</v>
+        <v>0.1743574884241022</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
       </c>
       <c r="I270" t="n">
-        <v>0.05104625151043056</v>
+        <v>0.05338482578351795</v>
       </c>
       <c r="J270" t="n">
         <v>0</v>
       </c>
       <c r="K270" t="n">
-        <v>0.03879920634920635</v>
+        <v>0.074</v>
       </c>
     </row>
     <row r="271">
@@ -10459,25 +10459,25 @@
         <v>0</v>
       </c>
       <c r="E271" t="n">
-        <v>0.1073201755589089</v>
+        <v>0.1576920169941255</v>
       </c>
       <c r="F271" t="n">
         <v>0</v>
       </c>
       <c r="G271" t="n">
-        <v>0.1048746203280841</v>
+        <v>0.1778422378642222</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
       </c>
       <c r="I271" t="n">
-        <v>0.1896635680362259</v>
+        <v>0.222894247685125</v>
       </c>
       <c r="J271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K271" t="n">
-        <v>0.2982963203463204</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="272">
@@ -10496,25 +10496,25 @@
         <v>0</v>
       </c>
       <c r="E272" t="n">
-        <v>0.1335220102348608</v>
+        <v>0.1086747574943089</v>
       </c>
       <c r="F272" t="n">
         <v>0</v>
       </c>
       <c r="G272" t="n">
-        <v>0.1332412597138937</v>
+        <v>0.1245518956001</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
       </c>
       <c r="I272" t="n">
-        <v>0.08418730324357485</v>
+        <v>0.02068294593049223</v>
       </c>
       <c r="J272" t="n">
         <v>0</v>
       </c>
       <c r="K272" t="n">
-        <v>0.1039460317460318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -10533,19 +10533,19 @@
         <v>0</v>
       </c>
       <c r="E273" t="n">
-        <v>0.1509404715507156</v>
+        <v>0.09927955697500788</v>
       </c>
       <c r="F273" t="n">
         <v>0</v>
       </c>
       <c r="G273" t="n">
-        <v>0.1517788568919077</v>
+        <v>0.1138335801847369</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
       </c>
       <c r="I273" t="n">
-        <v>0.1740221119885869</v>
+        <v>0.02068294593049223</v>
       </c>
       <c r="J273" t="n">
         <v>0</v>
@@ -10570,25 +10570,25 @@
         <v>0</v>
       </c>
       <c r="E274" t="n">
-        <v>0.144315366589613</v>
+        <v>0.08855664690749032</v>
       </c>
       <c r="F274" t="n">
         <v>0</v>
       </c>
       <c r="G274" t="n">
-        <v>0.1447591062569015</v>
+        <v>0.1013819915337691</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
       </c>
       <c r="I274" t="n">
-        <v>0.1740221119885869</v>
+        <v>0.02068294593049223</v>
       </c>
       <c r="J274" t="n">
         <v>0</v>
       </c>
       <c r="K274" t="n">
-        <v>0.0501142857142857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -10607,25 +10607,25 @@
         <v>0</v>
       </c>
       <c r="E275" t="n">
-        <v>0.1424674183114418</v>
+        <v>0.0581148912415804</v>
       </c>
       <c r="F275" t="n">
         <v>0</v>
       </c>
       <c r="G275" t="n">
-        <v>0.1427942770235567</v>
+        <v>0.06474817114062308</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
       </c>
       <c r="I275" t="n">
-        <v>0.1740221119885869</v>
+        <v>0.02068294593049223</v>
       </c>
       <c r="J275" t="n">
         <v>0</v>
       </c>
       <c r="K275" t="n">
-        <v>0.03797380952380953</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="276">
@@ -10644,25 +10644,25 @@
         <v>0</v>
       </c>
       <c r="E276" t="n">
-        <v>0.146183198530987</v>
+        <v>0.02550220451976384</v>
       </c>
       <c r="F276" t="n">
         <v>0</v>
       </c>
       <c r="G276" t="n">
-        <v>0.146742061772577</v>
+        <v>0.02419599309394905</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
       </c>
       <c r="I276" t="n">
-        <v>0.1740221119885869</v>
+        <v>0.02508451166125294</v>
       </c>
       <c r="J276" t="n">
         <v>0</v>
       </c>
       <c r="K276" t="n">
-        <v>0.3327051226551226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -10681,25 +10681,25 @@
         <v>0</v>
       </c>
       <c r="E277" t="n">
-        <v>0.1855780838516411</v>
+        <v>0.01555517596560636</v>
       </c>
       <c r="F277" t="n">
         <v>0</v>
       </c>
       <c r="G277" t="n">
-        <v>0.1878685546058758</v>
+        <v>0.01244147128217525</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
       </c>
       <c r="I277" t="n">
-        <v>0.2027019772999153</v>
+        <v>0.06101131361632416</v>
       </c>
       <c r="J277" t="n">
         <v>0</v>
       </c>
       <c r="K277" t="n">
-        <v>0.3327571428571429</v>
+        <v>0.08658412698412699</v>
       </c>
     </row>
     <row r="278">
@@ -10718,25 +10718,25 @@
         <v>0</v>
       </c>
       <c r="E278" t="n">
-        <v>0.1766541541874552</v>
+        <v>0.01760946041987482</v>
       </c>
       <c r="F278" t="n">
         <v>0</v>
       </c>
       <c r="G278" t="n">
-        <v>0.1786666547741149</v>
+        <v>0.01478178607579468</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
       </c>
       <c r="I278" t="n">
-        <v>0.1331025406060104</v>
+        <v>0.06101131361632416</v>
       </c>
       <c r="J278" t="n">
         <v>0</v>
       </c>
       <c r="K278" t="n">
-        <v>0.01383333333333333</v>
+        <v>0.2477150793650795</v>
       </c>
     </row>
     <row r="279">
@@ -10755,25 +10755,25 @@
         <v>0</v>
       </c>
       <c r="E279" t="n">
-        <v>0.1960289749915015</v>
+        <v>0.0180512125958446</v>
       </c>
       <c r="F279" t="n">
         <v>0</v>
       </c>
       <c r="G279" t="n">
-        <v>0.1985636512352773</v>
+        <v>0.01529277022713293</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
       </c>
       <c r="I279" t="n">
-        <v>0.1415247980852037</v>
+        <v>0.06101131361632416</v>
       </c>
       <c r="J279" t="n">
         <v>0</v>
       </c>
       <c r="K279" t="n">
-        <v>0.2009324675324677</v>
+        <v>0.0008571428571428571</v>
       </c>
     </row>
     <row r="280">
@@ -10792,25 +10792,25 @@
         <v>0</v>
       </c>
       <c r="E280" t="n">
-        <v>0.2032399877514577</v>
+        <v>0.03179544988399333</v>
       </c>
       <c r="F280" t="n">
         <v>0</v>
       </c>
       <c r="G280" t="n">
-        <v>0.2058935650117339</v>
+        <v>0.03196106715842142</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
       </c>
       <c r="I280" t="n">
-        <v>0.4137557852761747</v>
+        <v>0.02508451166125294</v>
       </c>
       <c r="J280" t="n">
         <v>0</v>
       </c>
       <c r="K280" t="n">
-        <v>0.428189765789766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
@@ -10829,25 +10829,25 @@
         <v>0</v>
       </c>
       <c r="E281" t="n">
-        <v>0.1712499080409731</v>
+        <v>0.05158343970124118</v>
       </c>
       <c r="F281" t="n">
         <v>0</v>
       </c>
       <c r="G281" t="n">
-        <v>0.1730621638460448</v>
+        <v>0.05666318925819387</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
       </c>
       <c r="I281" t="n">
-        <v>0.2059657876416815</v>
+        <v>0.02508451166125294</v>
       </c>
       <c r="J281" t="n">
         <v>0</v>
       </c>
       <c r="K281" t="n">
-        <v>0.2673484848484852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
@@ -10866,25 +10866,25 @@
         <v>0</v>
       </c>
       <c r="E282" t="n">
-        <v>0.1844438370135343</v>
+        <v>0.0425577287069187</v>
       </c>
       <c r="F282" t="n">
         <v>0</v>
       </c>
       <c r="G282" t="n">
-        <v>0.1867025709893073</v>
+        <v>0.04540508938078789</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
       </c>
       <c r="I282" t="n">
-        <v>0.2027019772999153</v>
+        <v>0.02508451166125294</v>
       </c>
       <c r="J282" t="n">
         <v>0</v>
       </c>
       <c r="K282" t="n">
-        <v>0.2381039682539684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
@@ -10903,19 +10903,19 @@
         <v>0</v>
       </c>
       <c r="E283" t="n">
-        <v>0.1901689105533929</v>
+        <v>0.0333858423536031</v>
       </c>
       <c r="F283" t="n">
         <v>0</v>
       </c>
       <c r="G283" t="n">
-        <v>0.1925772981734976</v>
+        <v>0.03394079651557588</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
       </c>
       <c r="I283" t="n">
-        <v>0.07338243035121433</v>
+        <v>0.02508451166125294</v>
       </c>
       <c r="J283" t="n">
         <v>0</v>
@@ -10940,25 +10940,25 @@
         <v>0</v>
       </c>
       <c r="E284" t="n">
-        <v>0.2106467605182258</v>
+        <v>0.04575039319277398</v>
       </c>
       <c r="F284" t="n">
         <v>0</v>
       </c>
       <c r="G284" t="n">
-        <v>0.21338163025586</v>
+        <v>0.04939546755004117</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
       </c>
       <c r="I284" t="n">
-        <v>0.2439376689596176</v>
+        <v>0.02508451166125294</v>
       </c>
       <c r="J284" t="n">
         <v>0</v>
       </c>
       <c r="K284" t="n">
-        <v>0.330754761904762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
@@ -10977,19 +10977,19 @@
         <v>0</v>
       </c>
       <c r="E285" t="n">
-        <v>0.190168910553393</v>
+        <v>0.07530123506394915</v>
       </c>
       <c r="F285" t="n">
         <v>0</v>
       </c>
       <c r="G285" t="n">
-        <v>0.1925772981734977</v>
+        <v>0.08566024496591057</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
       </c>
       <c r="I285" t="n">
-        <v>0.07338243035121433</v>
+        <v>0.02068294593049223</v>
       </c>
       <c r="J285" t="n">
         <v>0</v>
@@ -11014,19 +11014,19 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>0.1810733032537273</v>
+        <v>0.0788904508453854</v>
       </c>
       <c r="F286" t="n">
         <v>0</v>
       </c>
       <c r="G286" t="n">
-        <v>0.1832315805202688</v>
+        <v>0.0899533115775949</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
       </c>
       <c r="I286" t="n">
-        <v>0.1085848588364007</v>
+        <v>0.02068294593049223</v>
       </c>
       <c r="J286" t="n">
         <v>0</v>
@@ -11051,25 +11051,25 @@
         <v>0</v>
       </c>
       <c r="E287" t="n">
-        <v>0.1588159970012465</v>
+        <v>0.129821376604475</v>
       </c>
       <c r="F287" t="n">
         <v>0</v>
       </c>
       <c r="G287" t="n">
-        <v>0.160074012791216</v>
+        <v>0.1480561297923766</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
       </c>
       <c r="I287" t="n">
-        <v>0.1740221119885869</v>
+        <v>0.02068294593049223</v>
       </c>
       <c r="J287" t="n">
         <v>0</v>
       </c>
       <c r="K287" t="n">
-        <v>0.006733333333333333</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="288">
@@ -11088,25 +11088,25 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>0.1218009937766726</v>
+        <v>0.206269688155372</v>
       </c>
       <c r="F288" t="n">
         <v>0</v>
       </c>
       <c r="G288" t="n">
-        <v>0.1206206558639678</v>
+        <v>0.2270578916294426</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
       </c>
       <c r="I288" t="n">
-        <v>0.08195684635397429</v>
+        <v>0.0304388683727915</v>
       </c>
       <c r="J288" t="n">
         <v>0</v>
       </c>
       <c r="K288" t="n">
-        <v>0</v>
+        <v>0.0002857142857142857</v>
       </c>
     </row>
     <row r="289">
@@ -11125,25 +11125,25 @@
         <v>0</v>
       </c>
       <c r="E289" t="n">
-        <v>0.148071021976182</v>
+        <v>0.4533493167664558</v>
       </c>
       <c r="F289" t="n">
         <v>0</v>
       </c>
       <c r="G289" t="n">
-        <v>0.1487431603654492</v>
+        <v>0.4486119664867359</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I289" t="n">
-        <v>0.1740221119885869</v>
+        <v>0.9194993633905557</v>
       </c>
       <c r="J289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K289" t="n">
-        <v>0.08228809523809526</v>
+        <v>0.9874666666666668</v>
       </c>
     </row>
     <row r="290">
@@ -11162,25 +11162,25 @@
         <v>0</v>
       </c>
       <c r="E290" t="n">
-        <v>0.1618541122677792</v>
+        <v>0.2750471704575762</v>
       </c>
       <c r="F290" t="n">
         <v>0</v>
       </c>
       <c r="G290" t="n">
-        <v>0.163259717686588</v>
+        <v>0.2923294916510476</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
       </c>
       <c r="I290" t="n">
-        <v>0.1740221119885869</v>
+        <v>0.1338727946907</v>
       </c>
       <c r="J290" t="n">
         <v>0</v>
       </c>
       <c r="K290" t="n">
-        <v>0.202263963813964</v>
+        <v>0.01705238095238095</v>
       </c>
     </row>
     <row r="291">
@@ -11199,25 +11199,25 @@
         <v>0</v>
       </c>
       <c r="E291" t="n">
-        <v>0.1424674183114418</v>
+        <v>0.2651020726856854</v>
       </c>
       <c r="F291" t="n">
         <v>0</v>
       </c>
       <c r="G291" t="n">
-        <v>0.1427942770235568</v>
+        <v>0.283145435291785</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
       </c>
       <c r="I291" t="n">
-        <v>0.1740221119885869</v>
+        <v>0.3215762728691391</v>
       </c>
       <c r="J291" t="n">
         <v>0</v>
       </c>
       <c r="K291" t="n">
-        <v>0.03797380952380953</v>
+        <v>0.4713000000000002</v>
       </c>
     </row>
     <row r="292">
@@ -11236,25 +11236,25 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>0.1424674183114418</v>
+        <v>0.3979092492538815</v>
       </c>
       <c r="F292" t="n">
         <v>0</v>
       </c>
       <c r="G292" t="n">
-        <v>0.1427942770235567</v>
+        <v>0.4011558910254077</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I292" t="n">
-        <v>0.1740221119885869</v>
+        <v>0.6600505644307214</v>
       </c>
       <c r="J292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K292" t="n">
-        <v>0.03797380952380953</v>
+        <v>0.7413761904761904</v>
       </c>
     </row>
     <row r="293">
@@ -11270,28 +11270,28 @@
         <v>0</v>
       </c>
       <c r="D293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E293" t="n">
-        <v>0.1234194582923653</v>
+        <v>0.6090954961199462</v>
       </c>
       <c r="F293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G293" t="n">
-        <v>0.1223701823691667</v>
+        <v>0.5821756881205326</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I293" t="n">
-        <v>0.08195684635397429</v>
+        <v>0.8784269801233301</v>
       </c>
       <c r="J293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K293" t="n">
-        <v>0.1433761904761905</v>
+        <v>0.766</v>
       </c>
     </row>
     <row r="294">
@@ -11307,28 +11307,28 @@
         <v>0</v>
       </c>
       <c r="D294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E294" t="n">
-        <v>0.1335220102348607</v>
+        <v>0.5786856071235953</v>
       </c>
       <c r="F294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G294" t="n">
-        <v>0.1332412597138936</v>
+        <v>0.5557238323514295</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I294" t="n">
-        <v>0.08418730324357485</v>
+        <v>0.8784269801233301</v>
       </c>
       <c r="J294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K294" t="n">
-        <v>0.1039460317460318</v>
+        <v>0.978</v>
       </c>
     </row>
     <row r="295">
@@ -11344,28 +11344,28 @@
         <v>0</v>
       </c>
       <c r="D295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E295" t="n">
-        <v>0.1202008427362472</v>
+        <v>0.6946410056426394</v>
       </c>
       <c r="F295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G295" t="n">
-        <v>0.1188888150401149</v>
+        <v>0.6588921557698585</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I295" t="n">
-        <v>0.08195684635397429</v>
+        <v>0.9313954592219998</v>
       </c>
       <c r="J295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K295" t="n">
-        <v>0.01484444444444444</v>
+        <v>0.896</v>
       </c>
     </row>
     <row r="296">
@@ -11381,28 +11381,28 @@
         <v>0</v>
       </c>
       <c r="D296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E296" t="n">
-        <v>0.1755626924686279</v>
+        <v>0.7052364783675924</v>
       </c>
       <c r="F296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G296" t="n">
-        <v>0.1775367090566389</v>
+        <v>0.6687165841239509</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
       </c>
       <c r="I296" t="n">
-        <v>0.1331025406060104</v>
+        <v>0.2233813793923193</v>
       </c>
       <c r="J296" t="n">
         <v>0</v>
       </c>
       <c r="K296" t="n">
-        <v>0.00319047619047619</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="297">
@@ -11418,28 +11418,28 @@
         <v>0</v>
       </c>
       <c r="D297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E297" t="n">
-        <v>0.1691252329723338</v>
+        <v>0.8180242550696744</v>
       </c>
       <c r="F297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G297" t="n">
-        <v>0.1708520710709827</v>
+        <v>0.780239870001262</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I297" t="n">
-        <v>0.1254452833787519</v>
+        <v>0.9768845971727448</v>
       </c>
       <c r="J297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K297" t="n">
-        <v>0.1191857142857143</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="298">
@@ -11455,28 +11455,28 @@
         <v>0</v>
       </c>
       <c r="D298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E298" t="n">
-        <v>0.2093986894044301</v>
+        <v>0.7356961643546176</v>
       </c>
       <c r="F298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G298" t="n">
-        <v>0.2121227082748003</v>
+        <v>0.697479020229282</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
       </c>
       <c r="I298" t="n">
-        <v>0.2439376689596176</v>
+        <v>0.2233813793923193</v>
       </c>
       <c r="J298" t="n">
         <v>0</v>
       </c>
       <c r="K298" t="n">
-        <v>0.2038003774003777</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="299">
@@ -11492,28 +11492,28 @@
         <v>0</v>
       </c>
       <c r="D299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E299" t="n">
-        <v>0.2093986894044301</v>
+        <v>0.8103930104156953</v>
       </c>
       <c r="F299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G299" t="n">
-        <v>0.2121227082748003</v>
+        <v>0.7721883585123381</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I299" t="n">
-        <v>0.2439376689596176</v>
+        <v>0.9768845971727448</v>
       </c>
       <c r="J299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K299" t="n">
-        <v>0.2038003774003777</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="300">
@@ -11529,28 +11529,28 @@
         <v>0</v>
       </c>
       <c r="D300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E300" t="n">
-        <v>0.2106467605182258</v>
+        <v>0.8706412234693433</v>
       </c>
       <c r="F300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G300" t="n">
-        <v>0.21338163025586</v>
+        <v>0.8385333014025468</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I300" t="n">
-        <v>0.2439376689596176</v>
+        <v>0.9768845971727448</v>
       </c>
       <c r="J300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K300" t="n">
-        <v>0.330754761904762</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -11566,28 +11566,28 @@
         <v>0</v>
       </c>
       <c r="D301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E301" t="n">
-        <v>0.1649389501711596</v>
+        <v>0.7405721112129418</v>
       </c>
       <c r="F301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G301" t="n">
-        <v>0.1664863317660113</v>
+        <v>0.7021620044492561</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
       </c>
       <c r="I301" t="n">
-        <v>0.1386813671456047</v>
+        <v>0.2233813793923193</v>
       </c>
       <c r="J301" t="n">
         <v>0</v>
       </c>
       <c r="K301" t="n">
-        <v>0</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="302">
@@ -11603,28 +11603,28 @@
         <v>0</v>
       </c>
       <c r="D302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E302" t="n">
-        <v>0.1568163975803223</v>
+        <v>0.7453892362932926</v>
       </c>
       <c r="F302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G302" t="n">
-        <v>0.1579729439685654</v>
+        <v>0.7068116482362004</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I302" t="n">
-        <v>0.1740221119885869</v>
+        <v>0.9768845971727448</v>
       </c>
       <c r="J302" t="n">
         <v>1</v>
       </c>
       <c r="K302" t="n">
-        <v>0.6739000000000001</v>
+        <v>0.752</v>
       </c>
     </row>
     <row r="303">
@@ -11640,28 +11640,28 @@
         <v>0</v>
       </c>
       <c r="D303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E303" t="n">
-        <v>0.160836230159755</v>
+        <v>0.8180242550696744</v>
       </c>
       <c r="F303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G303" t="n">
-        <v>0.1621932696473434</v>
+        <v>0.780239870001262</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I303" t="n">
-        <v>0.1740221119885869</v>
+        <v>0.9768845971727448</v>
       </c>
       <c r="J303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K303" t="n">
-        <v>0.3362000000000002</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="304">
@@ -11677,28 +11677,28 @@
         <v>0</v>
       </c>
       <c r="D304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E304" t="n">
-        <v>0.1890131167394101</v>
+        <v>0.9176749096931662</v>
       </c>
       <c r="F304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G304" t="n">
-        <v>0.1913934009356223</v>
+        <v>0.895759455576751</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I304" t="n">
-        <v>0.07338243035121433</v>
+        <v>0.9768845971727448</v>
       </c>
       <c r="J304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -11714,28 +11714,28 @@
         <v>0</v>
       </c>
       <c r="D305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E305" t="n">
-        <v>0.1788530530852606</v>
+        <v>0.8677734419324895</v>
       </c>
       <c r="F305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G305" t="n">
-        <v>0.1809400960304679</v>
+        <v>0.8352155340195193</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I305" t="n">
-        <v>0.1085848588364007</v>
+        <v>0.9768845971727448</v>
       </c>
       <c r="J305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K305" t="n">
-        <v>0.002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
@@ -11751,28 +11751,28 @@
         <v>0</v>
       </c>
       <c r="D306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E306" t="n">
-        <v>0.1777509384698178</v>
+        <v>0.8064864438824785</v>
       </c>
       <c r="F306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G306" t="n">
-        <v>0.179801118212626</v>
+        <v>0.7681011627055356</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I306" t="n">
-        <v>0.3368907490090808</v>
+        <v>0.9768845971727448</v>
       </c>
       <c r="J306" t="n">
         <v>1</v>
       </c>
       <c r="K306" t="n">
-        <v>0.6394841269841274</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="307">
@@ -11788,28 +11788,28 @@
         <v>0</v>
       </c>
       <c r="D307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E307" t="n">
-        <v>0.1821914531973265</v>
+        <v>0.6838354155119427</v>
       </c>
       <c r="F307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G307" t="n">
-        <v>0.1843840795901874</v>
+        <v>0.6489588057837712</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I307" t="n">
-        <v>0.1085848588364007</v>
+        <v>0.9313954592219998</v>
       </c>
       <c r="J307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K307" t="n">
-        <v>0.007002380952380953</v>
+        <v>0.978</v>
       </c>
     </row>
     <row r="308">
@@ -11825,28 +11825,28 @@
         <v>0</v>
       </c>
       <c r="D308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E308" t="n">
-        <v>0.2340419258323151</v>
+        <v>0.5351408526433498</v>
       </c>
       <c r="F308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G308" t="n">
-        <v>0.2367758728050186</v>
+        <v>0.5182968211995301</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I308" t="n">
-        <v>0.2885144900742141</v>
+        <v>0.7208693881819513</v>
       </c>
       <c r="J308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K308" t="n">
-        <v>0.2845626984126984</v>
+        <v>0.5344809523809524</v>
       </c>
     </row>
     <row r="309">
@@ -11862,28 +11862,28 @@
         <v>0</v>
       </c>
       <c r="D309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E309" t="n">
-        <v>0.2477958322041829</v>
+        <v>0.6328393666545845</v>
       </c>
       <c r="F309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G309" t="n">
-        <v>0.2503585510140084</v>
+        <v>0.6030785220212466</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I309" t="n">
-        <v>0.1833011098821376</v>
+        <v>0.73351831112257</v>
       </c>
       <c r="J309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K309" t="n">
-        <v>0.2359668831168833</v>
+        <v>0.758</v>
       </c>
     </row>
     <row r="310">
@@ -11899,28 +11899,28 @@
         <v>0</v>
       </c>
       <c r="D310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E310" t="n">
-        <v>0.1984109246745567</v>
+        <v>0.6386809179673064</v>
       </c>
       <c r="F310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G310" t="n">
-        <v>0.2009892850108111</v>
+        <v>0.6082607785481751</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I310" t="n">
-        <v>0.1947688559777015</v>
+        <v>0.73351831112257</v>
       </c>
       <c r="J310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K310" t="n">
-        <v>0.1797570152070154</v>
+        <v>0.758</v>
       </c>
     </row>
     <row r="311">
@@ -11936,28 +11936,28 @@
         <v>0</v>
       </c>
       <c r="D311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E311" t="n">
-        <v>0.1960289749915015</v>
+        <v>0.6269585351020803</v>
       </c>
       <c r="F311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G311" t="n">
-        <v>0.1985636512352774</v>
+        <v>0.5978779983722697</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
       </c>
       <c r="I311" t="n">
-        <v>0.1415247980852037</v>
+        <v>0.4321970544215437</v>
       </c>
       <c r="J311" t="n">
         <v>0</v>
       </c>
       <c r="K311" t="n">
-        <v>0.2009324675324677</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="312">
@@ -11973,28 +11973,28 @@
         <v>0</v>
       </c>
       <c r="D312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E312" t="n">
-        <v>0.228691061301824</v>
+        <v>0.6386809179673064</v>
       </c>
       <c r="F312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G312" t="n">
-        <v>0.2314584556277054</v>
+        <v>0.6082607785481751</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I312" t="n">
-        <v>0.110254867125003</v>
+        <v>0.73351831112257</v>
       </c>
       <c r="J312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K312" t="n">
-        <v>0.0004</v>
+        <v>0.758</v>
       </c>
     </row>
     <row r="313">
@@ -12010,28 +12010,28 @@
         <v>0</v>
       </c>
       <c r="D313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E313" t="n">
-        <v>0.214423643867006</v>
+        <v>0.661626065730739</v>
       </c>
       <c r="F313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G313" t="n">
-        <v>0.2171844291849228</v>
+        <v>0.6287898472501736</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
       </c>
       <c r="I313" t="n">
-        <v>0.2139119117232821</v>
+        <v>0.2548038380260805</v>
       </c>
       <c r="J313" t="n">
         <v>0</v>
       </c>
       <c r="K313" t="n">
-        <v>0.3286258297258298</v>
+        <v>0.404</v>
       </c>
     </row>
   </sheetData>
